--- a/data/Task schedule (template)_finplan_formatted.xlsx
+++ b/data/Task schedule (template)_finplan_formatted.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\boa_uniteam\DOCSIFY\gisweb\finplan\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E667FFB-D883-4CE1-897C-3814A6F0282F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58695E17-7B56-422C-813E-60B0241ED2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="621" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Personal contribution" sheetId="1" r:id="rId1"/>
     <sheet name="Monthly pers payment, Euro" sheetId="2" r:id="rId2"/>
     <sheet name="Tabel, pers-day" sheetId="3" r:id="rId3"/>
     <sheet name="All monthly payments" sheetId="4" r:id="rId4"/>
+    <sheet name="Google calendar" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="458">
   <si>
     <t>Name</t>
   </si>
@@ -358,6 +359,1152 @@
       <t>↓ || M, Q, Y→</t>
     </r>
   </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>All Day Event</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>ZSUV, T.8.1, DateStart</t>
+  </si>
+  <si>
+    <t>31.01.2023</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.
+Виконавці: Gai, Celf, Hor</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>ZSUV, D.8.1, DateStart</t>
+  </si>
+  <si>
+    <t>02.06.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hendrerit gravida rutrum quisque non tellus.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>ZSUV, D.8.2, DateStart</t>
+  </si>
+  <si>
+    <t>01.12.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malesuada bibendum arcu vitae elementum.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>ZSUV, D.8.3, DateStart</t>
+  </si>
+  <si>
+    <t>01.06.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pellentesque diam volutpat commodo sed egestas egestas fringilla.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>ZSUV, T.8.5, DateStart</t>
+  </si>
+  <si>
+    <t>31.08.2024</t>
+  </si>
+  <si>
+    <t>Mauris pharetra et ultrices neque ornare aenean euismod elementum nisi.
+Виконавці: Gai, Celf, Hor</t>
+  </si>
+  <si>
+    <t>ZSUV, D.8.10, DateStart</t>
+  </si>
+  <si>
+    <t>30.11.2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elementum pulvinar etiam non quam lacus suspendisse.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.1, DateStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phasellus egestas tellus rutrum tellus pellentesque eu tincidunt tortor aliquam.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.1.1, DateStart</t>
+  </si>
+  <si>
+    <t>Porta non pulvinar neque laoreet.
+Виконавці: Fed, Mag, Ger, Fer</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.1.2, DateStart</t>
+  </si>
+  <si>
+    <t>01.05.2023</t>
+  </si>
+  <si>
+    <t>Rhoncus aenean vel elit scelerisque mauris pellentesque.
+Виконавці: Fed, Mag, Ger, Fer</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.1.3, DateStart</t>
+  </si>
+  <si>
+    <t>01.08.2023</t>
+  </si>
+  <si>
+    <t>Adipiscing elit duis tristique sollicitudin nibh.
+Виконавці: Fed, Mag, Ger, Fer</t>
+  </si>
+  <si>
+    <t>ZSUV, D.4.1, DateStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sociis natoque penatibus et magnis dis parturient.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.2, DateStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharetra et ultrices neque ornare aenean euismod elementum.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.2.1, DateStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dignissim convallis aenean et tortor at risus viverra adipiscing at.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.2.1.1, DateStart</t>
+  </si>
+  <si>
+    <t>Condimentum vitae sapien pellentesque habitant morbi.
+Виконавці: Fed, Mag, Ger, Fer</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.2.1.2, DateStart</t>
+  </si>
+  <si>
+    <t>02.01.2024</t>
+  </si>
+  <si>
+    <t>Eget sit amet tellus cras adipiscing enim.
+Виконавці: Fed, Mag, Ger, Fer</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.2.2, DateStart</t>
+  </si>
+  <si>
+    <t>01.04.2024</t>
+  </si>
+  <si>
+    <t>Nulla aliquet porttitor lacus luctus accumsan tortor.
+Виконавці: Fed, Mag, Ger, Fer</t>
+  </si>
+  <si>
+    <t>ZSUV, D.4.2, DateStart</t>
+  </si>
+  <si>
+    <t>30.11.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lacus sed viverra tellus in hac habitasse platea dictumst.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.3, DateStart</t>
+  </si>
+  <si>
+    <t>30.01.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platea dictumst quisque sagittis purus sit amet volutpat.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.3.1, DateStart</t>
+  </si>
+  <si>
+    <t>Fusce id velit ut tortor pretium viverra suspendisse potenti nullam.
+Виконавці: Fed, Mag, Ger</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.3.2, DateStart</t>
+  </si>
+  <si>
+    <t>01.08.2025</t>
+  </si>
+  <si>
+    <t>Viverra accumsan in nisl nisi.
+Виконавці: Fed, Mag, Ger</t>
+  </si>
+  <si>
+    <t>ZSUV, D.4.3, DateStart</t>
+  </si>
+  <si>
+    <t>30.11.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morbi tempus iaculis urna id volutpat lacus laoreet non curabitur.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>ZSUV, D.4.4, DateStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diam quam nulla porttitor massa id neque aliquam vestibulum morbi.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.4, DateStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fames ac turpis egestas integer eget aliquet nibh.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.4.1, DateStart</t>
+  </si>
+  <si>
+    <t>Magna fringilla urna porttitor rhoncus.
+Виконавці: Fed, Mag, Ger, Fer</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.4.2, DateStart</t>
+  </si>
+  <si>
+    <t>Nam aliquam sem et tortor consequat id.
+Виконавці: Fed, Mag, Ger, Fer</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.4.3, DateStart</t>
+  </si>
+  <si>
+    <t>02.01.2026</t>
+  </si>
+  <si>
+    <t>Sit amet commodo nulla facilisi nullam vehicula ipsum.
+Виконавці: Fed, Ger, Fer</t>
+  </si>
+  <si>
+    <t>ZSUV, D.4.5, DateStart</t>
+  </si>
+  <si>
+    <t>01.06.2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consequat nisl vel pretium lectus quam.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.5, DateStart</t>
+  </si>
+  <si>
+    <t>01.04.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sollicitudin tempor id eu nisl.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.5.1, DateStart</t>
+  </si>
+  <si>
+    <t>Eget felis eget nunc lobortis.
+Виконавці: Mag, Ger</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.5.2, DateStart</t>
+  </si>
+  <si>
+    <t>Egestas quis ipsum suspendisse ultrices gravida dictum fusce ut.
+Виконавці: Mag, Ger</t>
+  </si>
+  <si>
+    <t>ZSUV, D.4.6, DateStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scelerisque eu ultrices vitae auctor eu augue.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.1, DateStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sed velit dignissim sodales ut.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.1.1, DateStart</t>
+  </si>
+  <si>
+    <t>Odio eu feugiat pretium nibh ipsum consequat.
+Виконавці: Mag, Ger, Ort, Rain</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.1.2, DateStart</t>
+  </si>
+  <si>
+    <t>Lectus sit amet est placerat in egestas erat imperdiet.
+Виконавці: Mag, Ger, Ort, Rain</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.1.3, DateStart</t>
+  </si>
+  <si>
+    <t>Orci sagittis eu volutpat odio facilisis.
+Виконавці: Mag, Ger, Ort, Rain</t>
+  </si>
+  <si>
+    <t>ZSUV, D.5.1, DateStart</t>
+  </si>
+  <si>
+    <t>01.01.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id diam vel quam elementum.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.2, DateStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amet tellus cras adipiscing enim eu turpis egestas pretium.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.2.1, DateStart</t>
+  </si>
+  <si>
+    <t>Tortor consequat id porta nibh venenatis cras.
+Виконавці: Mag, Ort, Rain</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.2.2, DateStart</t>
+  </si>
+  <si>
+    <t>01.01.2024</t>
+  </si>
+  <si>
+    <t>Tristique senectus et netus et malesuada fames.
+Виконавці: Mag, Ort, Rain</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.2.3.1, DateStart</t>
+  </si>
+  <si>
+    <t>Iaculis at erat pellentesque adipiscing commodo elit at.
+Виконавці: Mag, Ort, Rain</t>
+  </si>
+  <si>
+    <t>31.07.2024</t>
+  </si>
+  <si>
+    <t>Erat imperdiet sed euismod nisi porta lorem mollis aliquam.
+Виконавці: Mag, Ort, Rain</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.3, DateStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ut lectus arcu bibendum at.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.3.1, DateStart</t>
+  </si>
+  <si>
+    <t>Nam libero justo laoreet sit amet cursus sit amet dictum.
+Виконавці: Mag, Ort, Rain</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.3.2, DateStart</t>
+  </si>
+  <si>
+    <t>02.01.2025</t>
+  </si>
+  <si>
+    <t>Consectetur adipiscing elit ut aliquam purus.
+Виконавці: Mag, Ort, Rain</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.4, DateStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amet consectetur adipiscing elit duis tristique sollicitudin nibh sit amet.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.4.1, DateStart</t>
+  </si>
+  <si>
+    <t>Suscipit adipiscing bibendum est ultricies.
+Виконавці: Mag, Ort, Rain</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.4.2, DateStart</t>
+  </si>
+  <si>
+    <t>Praesent tristique magna sit amet.
+Виконавці: Mag, Ort, Rain</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.4.3, DateStart</t>
+  </si>
+  <si>
+    <t>Turpis egestas pretium aenean pharetra magna.
+Виконавці: Mag, Ort, Rain</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.5, DateStart</t>
+  </si>
+  <si>
+    <t>31.07.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnis dis parturient montes nascetur ridiculus.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.5.1, DateStart</t>
+  </si>
+  <si>
+    <t>Sit amet consectetur adipiscing elit duis tristique sollicitudin nibh.
+Виконавці: Mag, Ger, Ort, Rain</t>
+  </si>
+  <si>
+    <t>ZSUV, T5.5.2, DateStart</t>
+  </si>
+  <si>
+    <t>Tempor nec feugiat nisl pretium.
+Виконавці: Mag, Ger, Ort, Rain</t>
+  </si>
+  <si>
+    <t>ZSUV, D.5.6, DateStart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Euismod quis viverra nibh cras pulvinar mattis nunc sed blandit.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>ZSUV, T.9, DateStart</t>
+  </si>
+  <si>
+    <t>02.07.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suspendisse sed nisi lacus sed.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>ZSUV, T.9.1, DateStart</t>
+  </si>
+  <si>
+    <t>03.07.2023</t>
+  </si>
+  <si>
+    <t>Tellus in hac habitasse platea.
+Виконавці: Gai, Celf, Hor</t>
+  </si>
+  <si>
+    <t>ZSUV, T.9.2, DateStart</t>
+  </si>
+  <si>
+    <t>Morbi leo urna molestie at elementum.
+Виконавці: Gai, Celf, Hor</t>
+  </si>
+  <si>
+    <t>ZSUV, T9.4, DateStart</t>
+  </si>
+  <si>
+    <t>01.07.2024</t>
+  </si>
+  <si>
+    <t>Leo vel fringilla est ullamcorper.
+Виконавці: Gai, Celf, Hor</t>
+  </si>
+  <si>
+    <t>ZSUV, T.12, DateStart</t>
+  </si>
+  <si>
+    <t>Sit amet nisl suscipit adipiscing bibendum est.
+Виконавці: Fed, Arn</t>
+  </si>
+  <si>
+    <t>ZSUV, C1, DateStart</t>
+  </si>
+  <si>
+    <t>05.07.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ut enim blandit volutpat maecenas volutpat blandit aliquam etiam.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>ZSUV, C2, DateStart</t>
+  </si>
+  <si>
+    <t>05.07.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enim sit amet venenatis urna cursus eget nunc scelerisque.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>ZSUV, C3, DateStart</t>
+  </si>
+  <si>
+    <t>05.07.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitae tempus quam pellentesque nec nam aliquam.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>ZSUV, C4, DateStart</t>
+  </si>
+  <si>
+    <t>05.11.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amet mattis vulputate enim nulla aliquet.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>ZSUV, C5, DateStart</t>
+  </si>
+  <si>
+    <t>05.07.2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorem ipsum dolor sit amet consectetur adipiscing elit ut aliquam.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>ZSUV, S1, DateStart</t>
+  </si>
+  <si>
+    <t>02.02.2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erat imperdiet sed euismod nisi porta lorem mollis aliquam.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>ZSUV, I1, DateStart</t>
+  </si>
+  <si>
+    <t>21.03.2023</t>
+  </si>
+  <si>
+    <t>Nulla facilisi nullam vehicula ipsum a arcu.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>ZSUV, I2, DateStart</t>
+  </si>
+  <si>
+    <t>21.06.2023</t>
+  </si>
+  <si>
+    <t>Id diam vel quam elementum pulvinar etiam non quam lacus.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>ZSUV, I3, DateStart</t>
+  </si>
+  <si>
+    <t>21.09.2023</t>
+  </si>
+  <si>
+    <t>Enim nunc faucibus a pellentesque sit amet porttitor.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>ZSUV, I4, DateStart</t>
+  </si>
+  <si>
+    <t>21.12.2023</t>
+  </si>
+  <si>
+    <t>A scelerisque purus semper eget duis at tellus at.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>ZSUV, I5, DateStart</t>
+  </si>
+  <si>
+    <t>21.03.2024</t>
+  </si>
+  <si>
+    <t>Turpis egestas maecenas pharetra convallis posuere.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>ZSUV, I6, DateStart</t>
+  </si>
+  <si>
+    <t>21.06.2024</t>
+  </si>
+  <si>
+    <t>Sed risus pretium quam vulputate.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>ZSUV, R1, DateStart</t>
+  </si>
+  <si>
+    <t>Accumsan in nisl nisi scelerisque eu ultrices.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>ZSUV, I7, DateStart</t>
+  </si>
+  <si>
+    <t>21.09.2024</t>
+  </si>
+  <si>
+    <t>Dictumst quisque sagittis purus sit amet volutpat.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>ZSUV, I8, DateStart</t>
+  </si>
+  <si>
+    <t>21.12.2024</t>
+  </si>
+  <si>
+    <t>Eget mauris pharetra et ultrices neque.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>ZSUV, I9, DateStart</t>
+  </si>
+  <si>
+    <t>21.03.2025</t>
+  </si>
+  <si>
+    <t>Tortor dignissim convallis aenean et tortor at risus.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>ZSUV, I10, DateStart</t>
+  </si>
+  <si>
+    <t>21.06.2025</t>
+  </si>
+  <si>
+    <t>Consequat semper viverra nam libero justo laoreet sit amet.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>ZSUV, I11, DateStart</t>
+  </si>
+  <si>
+    <t>30.09.2025</t>
+  </si>
+  <si>
+    <t>Amet aliquam id diam maecenas ultricies mi.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>ZSUV, R2, DateStart</t>
+  </si>
+  <si>
+    <t>31.12.2025</t>
+  </si>
+  <si>
+    <t>Amet mattis vulputate enim nulla aliquet.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>ZSUV, I12, DateStart</t>
+  </si>
+  <si>
+    <t>Elementum nibh tellus molestie nunc non blandit massa enim nec.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>ZSUV, I13, DateStart</t>
+  </si>
+  <si>
+    <t>21.06.2026</t>
+  </si>
+  <si>
+    <t>Laoreet suspendisse interdum consectetur libero id faucibus nisl tincidunt.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>ZSUV, I14, DateStart</t>
+  </si>
+  <si>
+    <t>21.12.2026</t>
+  </si>
+  <si>
+    <t>Quis risus sed vulputate odio ut enim blandit volutpat maecenas.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>ZSUV, P1, DateStart</t>
+  </si>
+  <si>
+    <t>Maecenas volutpat blandit aliquam etiam erat.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>ZSUV, P2, DateStart</t>
+  </si>
+  <si>
+    <t>Amet risus nullam eget felis.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>ZSUV, P3, DateStart</t>
+  </si>
+  <si>
+    <t>02.06.2024</t>
+  </si>
+  <si>
+    <t>Pretium nibh ipsum consequat nisl vel pretium lectus.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>ZSUV, FR1, DateStart</t>
+  </si>
+  <si>
+    <t>Nulla posuere sollicitudin aliquam ultrices sagittis orci a.
+Виконавці: Fed, Arn</t>
+  </si>
+  <si>
+    <t>ZSUV, P4, DateStart</t>
+  </si>
+  <si>
+    <t>01.12.2024</t>
+  </si>
+  <si>
+    <t>Arcu vitae elementum curabitur vitae nunc sed velit dignissim sodales.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>ZSUV, P5, DateStart</t>
+  </si>
+  <si>
+    <t>01.12.2025</t>
+  </si>
+  <si>
+    <t>Enim sit amet venenatis urna cursus eget nunc scelerisque viverra.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>ZSUV, FR2, DateStart</t>
+  </si>
+  <si>
+    <t>Velit laoreet id donec ultrices tincidunt arcu non.
+Виконавці: Fed, Arn</t>
+  </si>
+  <si>
+    <t>ZSUV, P6, DateStart</t>
+  </si>
+  <si>
+    <t>01.12.2026</t>
+  </si>
+  <si>
+    <t>Tellus mauris a diam maecenas sed enim ut sem viverra.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>ZSUV, T.8.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, D.8.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, D.8.2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, D.8.3, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.8.5, DateEnd</t>
+  </si>
+  <si>
+    <t>31.12.2026</t>
+  </si>
+  <si>
+    <t>ZSUV, D.8.10, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.1.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.1.2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.1.3, DateEnd</t>
+  </si>
+  <si>
+    <t>29.12.2023</t>
+  </si>
+  <si>
+    <t>ZSUV, D.4.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.2, DateEnd</t>
+  </si>
+  <si>
+    <t>31.12.2024</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.2.1, DateEnd</t>
+  </si>
+  <si>
+    <t>01.03.2024</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.2.1.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.2.1.2, DateEnd</t>
+  </si>
+  <si>
+    <t>29.03.2024</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.2.2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, D.4.2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.3, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.3.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.3.2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, D.4.3, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, D.4.4, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.4, DateEnd</t>
+  </si>
+  <si>
+    <t>01.07.2026</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.4.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.4.2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.4.3, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, D.4.5, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.5, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.5.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.5.2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, D.4.6, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.1.1, DateEnd</t>
+  </si>
+  <si>
+    <t>28.04.2023</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.1.2, DateEnd</t>
+  </si>
+  <si>
+    <t>31.07.2023</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.1.3, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, D.5.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.2.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.2.2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.2.3.1, DateEnd</t>
+  </si>
+  <si>
+    <t>30.07.2024</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.3, DateEnd</t>
+  </si>
+  <si>
+    <t>31.08.2025</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.3.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.3.2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.4, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.4.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.4.2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.4.3, DateEnd</t>
+  </si>
+  <si>
+    <t>02.07.2026</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.5, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.5.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T5.5.2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, D.5.6, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.9, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.9.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.9.2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T9.4, DateEnd</t>
+  </si>
+  <si>
+    <t>30.09.2026</t>
+  </si>
+  <si>
+    <t>ZSUV, T.12, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, C1, DateEnd</t>
+  </si>
+  <si>
+    <t>07.07.2023</t>
+  </si>
+  <si>
+    <t>ZSUV, C2, DateEnd</t>
+  </si>
+  <si>
+    <t>07.07.2024</t>
+  </si>
+  <si>
+    <t>ZSUV, C3, DateEnd</t>
+  </si>
+  <si>
+    <t>07.07.2025</t>
+  </si>
+  <si>
+    <t>ZSUV, C4, DateEnd</t>
+  </si>
+  <si>
+    <t>10.11.2025</t>
+  </si>
+  <si>
+    <t>ZSUV, C5, DateEnd</t>
+  </si>
+  <si>
+    <t>07.07.2026</t>
+  </si>
+  <si>
+    <t>ZSUV, S1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, I1, DateEnd</t>
+  </si>
+  <si>
+    <t>31.03.2023</t>
+  </si>
+  <si>
+    <t>ZSUV, I2, DateEnd</t>
+  </si>
+  <si>
+    <t>30.06.2023</t>
+  </si>
+  <si>
+    <t>ZSUV, I3, DateEnd</t>
+  </si>
+  <si>
+    <t>30.09.2023</t>
+  </si>
+  <si>
+    <t>ZSUV, I4, DateEnd</t>
+  </si>
+  <si>
+    <t>31.12.2023</t>
+  </si>
+  <si>
+    <t>ZSUV, I5, DateEnd</t>
+  </si>
+  <si>
+    <t>31.03.2024</t>
+  </si>
+  <si>
+    <t>ZSUV, I6, DateEnd</t>
+  </si>
+  <si>
+    <t>30.06.2024</t>
+  </si>
+  <si>
+    <t>ZSUV, R1, DateEnd</t>
+  </si>
+  <si>
+    <t>28.08.2024</t>
+  </si>
+  <si>
+    <t>ZSUV, I7, DateEnd</t>
+  </si>
+  <si>
+    <t>30.09.2024</t>
+  </si>
+  <si>
+    <t>ZSUV, I8, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, I9, DateEnd</t>
+  </si>
+  <si>
+    <t>31.03.2025</t>
+  </si>
+  <si>
+    <t>ZSUV, I10, DateEnd</t>
+  </si>
+  <si>
+    <t>30.06.2025</t>
+  </si>
+  <si>
+    <t>ZSUV, I11, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, R2, DateEnd</t>
+  </si>
+  <si>
+    <t>28.02.2026</t>
+  </si>
+  <si>
+    <t>ZSUV, I12, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, I13, DateEnd</t>
+  </si>
+  <si>
+    <t>30.06.2026</t>
+  </si>
+  <si>
+    <t>ZSUV, I14, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, P1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, P2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, P3, DateEnd</t>
+  </si>
+  <si>
+    <t>02.07.2024</t>
+  </si>
+  <si>
+    <t>ZSUV, FR1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, P4, DateEnd</t>
+  </si>
+  <si>
+    <t>01.01.2025</t>
+  </si>
+  <si>
+    <t>ZSUV, P5, DateEnd</t>
+  </si>
+  <si>
+    <t>01.01.2026</t>
+  </si>
+  <si>
+    <t>ZSUV, FR2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, P6, DateEnd</t>
+  </si>
 </sst>
 </file>
 
@@ -365,8 +1512,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -487,7 +1634,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -504,16 +1651,16 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -527,7 +1674,50 @@
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
     <cellStyle name="Фінансовий" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="221">
+  <dxfs count="224">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -752,211 +1942,240 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
     </dxf>
     <dxf>
       <font>
@@ -988,6 +2207,52 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -1218,6 +2483,23 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1247,138 +2529,14 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
       <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="170" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1423,19 +2581,51 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color auto="1"/>
         </left>
         <top style="thin">
           <color auto="1"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -1452,93 +2642,93 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AEDCA689-2488-4C21-9869-2E6926368E90}" name="Таблиця1" displayName="Таблиця1" ref="A1:G12" totalsRowShown="0" headerRowDxfId="211" dataDxfId="210" headerRowBorderDxfId="219" tableBorderDxfId="220">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AEDCA689-2488-4C21-9869-2E6926368E90}" name="Таблиця1" displayName="Таблиця1" ref="A1:G12" totalsRowShown="0" headerRowDxfId="223" dataDxfId="221" headerRowBorderDxfId="222" tableBorderDxfId="220">
   <autoFilter ref="A1:G12" xr:uid="{AEDCA689-2488-4C21-9869-2E6926368E90}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{83796114-5D01-4A40-BF3D-29AAC5877896}" name="Nick" dataDxfId="218"/>
-    <tableColumn id="2" xr3:uid="{934B7F4C-FE34-4EDC-AACB-0FB274F39790}" name="Name" dataDxfId="217"/>
-    <tableColumn id="3" xr3:uid="{99ED88B0-0569-449C-BDFB-747BB2099D87}" name="Sub team" dataDxfId="216"/>
-    <tableColumn id="4" xr3:uid="{C2A2847E-74F8-4B8F-BD3C-64F5E9986BC5}" name="Ставка, Є/день" dataDxfId="215"/>
-    <tableColumn id="5" xr3:uid="{9BF431D6-3414-4443-9919-8F1C65BD4523}" name="Pers days" dataDxfId="214"/>
-    <tableColumn id="6" xr3:uid="{8584A3DE-77D0-4880-B4D9-44BC7A83C5B8}" name="Total payment" dataDxfId="213" dataCellStyle="Фінансовий"/>
-    <tableColumn id="7" xr3:uid="{2A39884E-32BA-4FF1-ABA6-9206B8E093B2}" name="Contrib" dataDxfId="212"/>
+    <tableColumn id="1" xr3:uid="{83796114-5D01-4A40-BF3D-29AAC5877896}" name="Nick" dataDxfId="219"/>
+    <tableColumn id="2" xr3:uid="{934B7F4C-FE34-4EDC-AACB-0FB274F39790}" name="Name" dataDxfId="218"/>
+    <tableColumn id="3" xr3:uid="{99ED88B0-0569-449C-BDFB-747BB2099D87}" name="Sub team" dataDxfId="217"/>
+    <tableColumn id="4" xr3:uid="{C2A2847E-74F8-4B8F-BD3C-64F5E9986BC5}" name="Ставка, Є/день" dataDxfId="216"/>
+    <tableColumn id="5" xr3:uid="{9BF431D6-3414-4443-9919-8F1C65BD4523}" name="Pers days" dataDxfId="215"/>
+    <tableColumn id="6" xr3:uid="{8584A3DE-77D0-4880-B4D9-44BC7A83C5B8}" name="Total payment" dataDxfId="214" dataCellStyle="Фінансовий"/>
+    <tableColumn id="7" xr3:uid="{2A39884E-32BA-4FF1-ABA6-9206B8E093B2}" name="Contrib" dataDxfId="213"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1DB46B84-D177-4B82-9261-F695F74C40FE}" name="Таблиця4" displayName="Таблиця4" ref="A1:BR12" totalsRowShown="0" headerRowDxfId="203" headerRowBorderDxfId="204" tableBorderDxfId="205">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{1DB46B84-D177-4B82-9261-F695F74C40FE}" name="Таблиця4" displayName="Таблиця4" ref="A1:BR12" totalsRowShown="0" headerRowDxfId="212" headerRowBorderDxfId="211" tableBorderDxfId="210">
   <autoFilter ref="A1:BR12" xr:uid="{1DB46B84-D177-4B82-9261-F695F74C40FE}"/>
   <tableColumns count="70">
-    <tableColumn id="1" xr3:uid="{24FCCCA8-FCB8-4AFC-A537-CE3CC64F1493}" name="user" dataDxfId="202"/>
-    <tableColumn id="2" xr3:uid="{F38E025A-F1EB-4826-AD1F-2DECA513DBCD}" name="1" dataDxfId="201"/>
-    <tableColumn id="3" xr3:uid="{70251CB3-0A3F-4D2E-8669-E6B34E5D3B3F}" name="2" dataDxfId="200"/>
-    <tableColumn id="4" xr3:uid="{3E2DC2EF-E447-4B84-914C-8EB7C42943AD}" name="3" dataDxfId="199"/>
-    <tableColumn id="5" xr3:uid="{EACBB69F-8FE4-4E36-B0BA-450FC9B8D4BB}" name="Q1/Y2023" dataDxfId="198"/>
-    <tableColumn id="6" xr3:uid="{11D48E1A-C3EF-42D1-AF98-FB4C4D5E2E4F}" name="4" dataDxfId="197"/>
-    <tableColumn id="7" xr3:uid="{4748BD51-D59B-4544-8B74-F45E6A3E887C}" name="5" dataDxfId="196"/>
-    <tableColumn id="8" xr3:uid="{93ED3A91-92C4-4B6C-AD7F-9E09119ED7E1}" name="6" dataDxfId="195"/>
-    <tableColumn id="9" xr3:uid="{29AE1C5C-7266-4785-A72B-FD1C60F2B53A}" name="Q2/Y2023" dataDxfId="194"/>
-    <tableColumn id="10" xr3:uid="{05813494-9AAB-47D6-ACAB-3CB36A49BAB1}" name="7" dataDxfId="193"/>
-    <tableColumn id="11" xr3:uid="{5B2D8F7A-7125-409F-A8DA-C49E73A379B9}" name="8" dataDxfId="192"/>
-    <tableColumn id="12" xr3:uid="{C8AEAD84-7913-40F1-9343-700BF6604DC1}" name="9" dataDxfId="191"/>
-    <tableColumn id="13" xr3:uid="{19A65768-9EB7-47F9-9A13-1544704271D5}" name="Q3/Y2023" dataDxfId="190"/>
-    <tableColumn id="14" xr3:uid="{74CBB76B-6EC5-4FB6-9663-35B407AED3E8}" name="10" dataDxfId="189"/>
-    <tableColumn id="15" xr3:uid="{C4F22EF9-05C1-4722-BBD3-D8BFA25E5585}" name="11" dataDxfId="188"/>
-    <tableColumn id="16" xr3:uid="{021CA27B-F0DD-4766-B9C4-09FC01F1CAA7}" name="12" dataDxfId="187"/>
-    <tableColumn id="17" xr3:uid="{C46EBC0D-A157-4E58-86E0-C7704E07882F}" name="Q4/Y2023" dataDxfId="186"/>
-    <tableColumn id="18" xr3:uid="{B970EDF2-CB38-4EBF-B917-18B91F74ABEA}" name="Y2023" dataDxfId="185"/>
-    <tableColumn id="19" xr3:uid="{E80BE764-0437-4411-9577-45F95BBEDA70}" name="13" dataDxfId="184"/>
-    <tableColumn id="20" xr3:uid="{7FFFF908-7168-476C-8C42-30272DCD35E9}" name="14" dataDxfId="183"/>
-    <tableColumn id="21" xr3:uid="{7C67F1CC-EF96-44B6-B5E9-565999AC7CA0}" name="15" dataDxfId="182"/>
-    <tableColumn id="22" xr3:uid="{F9C333E7-D17F-4893-BE56-CA27AD1201D3}" name="Q1/Y2024" dataDxfId="181"/>
-    <tableColumn id="23" xr3:uid="{E38917A6-DF2E-4B33-BED6-48D9AB2087DD}" name="16" dataDxfId="180"/>
-    <tableColumn id="24" xr3:uid="{E1AB76EE-861A-42AA-ADE1-FA5C547CF352}" name="17" dataDxfId="179"/>
-    <tableColumn id="25" xr3:uid="{57493BBD-5BB5-4231-87DF-1297CD7005B4}" name="18" dataDxfId="178"/>
-    <tableColumn id="26" xr3:uid="{03908DBF-19B5-4D25-80D4-94E98C2BFD28}" name="Q2/Y2024" dataDxfId="177"/>
-    <tableColumn id="27" xr3:uid="{881AD3CD-0B8A-4877-B496-203BC5D3201B}" name="19" dataDxfId="176"/>
-    <tableColumn id="28" xr3:uid="{AE5EF4B0-9EC0-4AB3-BEF1-205832C66924}" name="20" dataDxfId="175"/>
-    <tableColumn id="29" xr3:uid="{4BE7ED1B-DC91-4AB4-B3B9-7A69631913A2}" name="21" dataDxfId="174"/>
-    <tableColumn id="30" xr3:uid="{FEE08C26-ACFD-442B-85C2-4B2C0ABA36B5}" name="Q3/Y2024" dataDxfId="173"/>
-    <tableColumn id="31" xr3:uid="{19FE2DEF-7000-4EC2-AE8A-BB38A834EE9D}" name="22" dataDxfId="172"/>
-    <tableColumn id="32" xr3:uid="{D7E51146-DF58-4ECF-B648-34C82D1E9B7D}" name="23" dataDxfId="171"/>
-    <tableColumn id="33" xr3:uid="{19A778EC-DC56-45F2-8495-C66483455101}" name="24" dataDxfId="170"/>
-    <tableColumn id="34" xr3:uid="{059BF48B-850F-4989-841C-D76325461A76}" name="Q4/Y2024" dataDxfId="169"/>
-    <tableColumn id="35" xr3:uid="{31852B9A-9DB1-4983-A08E-1F7F07DC2E23}" name="Y2024" dataDxfId="168"/>
-    <tableColumn id="36" xr3:uid="{61B9FD08-261F-42A8-B0C1-0CE0BCD551F8}" name="25" dataDxfId="167"/>
-    <tableColumn id="37" xr3:uid="{C2066E16-2F1D-41EF-A13F-966032444BFC}" name="26" dataDxfId="166"/>
-    <tableColumn id="38" xr3:uid="{9AC876B7-F5B8-493B-AF2D-7502DBE39E39}" name="27" dataDxfId="165"/>
-    <tableColumn id="39" xr3:uid="{99E03A8D-712D-46C2-9232-8FEA0B9D11D0}" name="Q1/Y2025" dataDxfId="164"/>
-    <tableColumn id="40" xr3:uid="{668E476B-3D8E-4D1D-93C1-5068CC41C7CD}" name="28" dataDxfId="163"/>
-    <tableColumn id="41" xr3:uid="{E7D8F79C-FDCA-41E1-B2BA-07F3F144935C}" name="29" dataDxfId="162"/>
-    <tableColumn id="42" xr3:uid="{3D89B74C-C2A0-4813-9623-0BDA76B5808A}" name="30" dataDxfId="161"/>
-    <tableColumn id="43" xr3:uid="{8994880D-EF06-42CA-9922-0B5F7A4EF113}" name="Q2/Y2025" dataDxfId="160"/>
-    <tableColumn id="44" xr3:uid="{957C28CF-A390-4C2E-BE37-C2E1CF563C75}" name="31" dataDxfId="159"/>
-    <tableColumn id="45" xr3:uid="{D13EC791-5C40-4904-B478-D62FBF904B8D}" name="32" dataDxfId="158"/>
-    <tableColumn id="46" xr3:uid="{E4DC29AB-114C-4C8A-8A40-F9532EAD9C7C}" name="33" dataDxfId="157"/>
-    <tableColumn id="47" xr3:uid="{6E49EB8B-5A1D-4BFC-9946-21854C3A5F9C}" name="Q3/Y2025" dataDxfId="156"/>
-    <tableColumn id="48" xr3:uid="{74B82EF2-1C38-48A5-88A6-914CED8B9897}" name="34" dataDxfId="155"/>
-    <tableColumn id="49" xr3:uid="{D2078578-4AE8-4FA1-A54A-EB7E0D184C97}" name="35" dataDxfId="154"/>
-    <tableColumn id="50" xr3:uid="{D41045AC-4A28-4160-92A6-73B94C8248E4}" name="36" dataDxfId="153"/>
-    <tableColumn id="51" xr3:uid="{2BAD1F2F-0324-4FC2-9D1E-5E2357A79B5F}" name="Q4/Y2025" dataDxfId="152"/>
-    <tableColumn id="52" xr3:uid="{DA05EE0B-7CF9-4688-A7DF-FC35F08BAD9C}" name="Y2025" dataDxfId="151"/>
-    <tableColumn id="53" xr3:uid="{626962A3-B504-479E-8B0A-5812C28C404E}" name="37" dataDxfId="150"/>
-    <tableColumn id="54" xr3:uid="{84EA7E40-EF56-4CCF-97A8-15FB3FD6E26A}" name="38" dataDxfId="149"/>
-    <tableColumn id="55" xr3:uid="{0AEE2E9A-92DA-4494-A63B-4C45D35FDC12}" name="39" dataDxfId="148"/>
-    <tableColumn id="56" xr3:uid="{C9F78675-CC94-4A2C-9EF0-5F2421C5C0EC}" name="Q1/Y2026" dataDxfId="147"/>
-    <tableColumn id="57" xr3:uid="{AE3FDC10-8C44-49B7-B2EC-394DD8397C4B}" name="40" dataDxfId="146"/>
-    <tableColumn id="58" xr3:uid="{FD5E53E9-AB32-494D-9BB9-BC702CC1C0CC}" name="41" dataDxfId="145"/>
-    <tableColumn id="59" xr3:uid="{BD7AEBD4-FDCF-4800-ADEB-606A5E9762BA}" name="42" dataDxfId="144"/>
-    <tableColumn id="60" xr3:uid="{C44E3524-4401-4F3B-96DF-64D6C5213EAF}" name="Q2/Y2026" dataDxfId="143"/>
-    <tableColumn id="61" xr3:uid="{484E5183-CE51-4457-B460-2C767E8EE3E7}" name="43" dataDxfId="142"/>
-    <tableColumn id="62" xr3:uid="{4DF25424-246F-4820-96D5-1BFBEC0CFCA5}" name="44" dataDxfId="141"/>
-    <tableColumn id="63" xr3:uid="{4B47EC0C-2804-4B03-8348-83319BAF947E}" name="45" dataDxfId="140"/>
-    <tableColumn id="64" xr3:uid="{BADB7E9E-BF84-43A9-9394-D9908F64454C}" name="Q3/Y2026" dataDxfId="139"/>
-    <tableColumn id="65" xr3:uid="{BC5FBC9D-C5D4-4B99-B269-5FD1F4353538}" name="46" dataDxfId="138"/>
-    <tableColumn id="66" xr3:uid="{C02795F1-F04F-4EB8-A352-026124518C34}" name="47" dataDxfId="137"/>
-    <tableColumn id="67" xr3:uid="{5E713E18-52F6-4F2A-8A69-95C2ADE51AE2}" name="48" dataDxfId="136"/>
-    <tableColumn id="68" xr3:uid="{17D3204F-CEF4-46E0-9950-FC97FEF23A47}" name="Q4/Y2026" dataDxfId="135"/>
+    <tableColumn id="1" xr3:uid="{24FCCCA8-FCB8-4AFC-A537-CE3CC64F1493}" name="user" dataDxfId="209"/>
+    <tableColumn id="2" xr3:uid="{F38E025A-F1EB-4826-AD1F-2DECA513DBCD}" name="1" dataDxfId="208"/>
+    <tableColumn id="3" xr3:uid="{70251CB3-0A3F-4D2E-8669-E6B34E5D3B3F}" name="2" dataDxfId="207"/>
+    <tableColumn id="4" xr3:uid="{3E2DC2EF-E447-4B84-914C-8EB7C42943AD}" name="3" dataDxfId="206"/>
+    <tableColumn id="5" xr3:uid="{EACBB69F-8FE4-4E36-B0BA-450FC9B8D4BB}" name="Q1/Y2023" dataDxfId="205"/>
+    <tableColumn id="6" xr3:uid="{11D48E1A-C3EF-42D1-AF98-FB4C4D5E2E4F}" name="4" dataDxfId="204"/>
+    <tableColumn id="7" xr3:uid="{4748BD51-D59B-4544-8B74-F45E6A3E887C}" name="5" dataDxfId="203"/>
+    <tableColumn id="8" xr3:uid="{93ED3A91-92C4-4B6C-AD7F-9E09119ED7E1}" name="6" dataDxfId="202"/>
+    <tableColumn id="9" xr3:uid="{29AE1C5C-7266-4785-A72B-FD1C60F2B53A}" name="Q2/Y2023" dataDxfId="201"/>
+    <tableColumn id="10" xr3:uid="{05813494-9AAB-47D6-ACAB-3CB36A49BAB1}" name="7" dataDxfId="200"/>
+    <tableColumn id="11" xr3:uid="{5B2D8F7A-7125-409F-A8DA-C49E73A379B9}" name="8" dataDxfId="199"/>
+    <tableColumn id="12" xr3:uid="{C8AEAD84-7913-40F1-9343-700BF6604DC1}" name="9" dataDxfId="198"/>
+    <tableColumn id="13" xr3:uid="{19A65768-9EB7-47F9-9A13-1544704271D5}" name="Q3/Y2023" dataDxfId="197"/>
+    <tableColumn id="14" xr3:uid="{74CBB76B-6EC5-4FB6-9663-35B407AED3E8}" name="10" dataDxfId="196"/>
+    <tableColumn id="15" xr3:uid="{C4F22EF9-05C1-4722-BBD3-D8BFA25E5585}" name="11" dataDxfId="195"/>
+    <tableColumn id="16" xr3:uid="{021CA27B-F0DD-4766-B9C4-09FC01F1CAA7}" name="12" dataDxfId="194"/>
+    <tableColumn id="17" xr3:uid="{C46EBC0D-A157-4E58-86E0-C7704E07882F}" name="Q4/Y2023" dataDxfId="193"/>
+    <tableColumn id="18" xr3:uid="{B970EDF2-CB38-4EBF-B917-18B91F74ABEA}" name="Y2023" dataDxfId="192"/>
+    <tableColumn id="19" xr3:uid="{E80BE764-0437-4411-9577-45F95BBEDA70}" name="13" dataDxfId="191"/>
+    <tableColumn id="20" xr3:uid="{7FFFF908-7168-476C-8C42-30272DCD35E9}" name="14" dataDxfId="190"/>
+    <tableColumn id="21" xr3:uid="{7C67F1CC-EF96-44B6-B5E9-565999AC7CA0}" name="15" dataDxfId="189"/>
+    <tableColumn id="22" xr3:uid="{F9C333E7-D17F-4893-BE56-CA27AD1201D3}" name="Q1/Y2024" dataDxfId="188"/>
+    <tableColumn id="23" xr3:uid="{E38917A6-DF2E-4B33-BED6-48D9AB2087DD}" name="16" dataDxfId="187"/>
+    <tableColumn id="24" xr3:uid="{E1AB76EE-861A-42AA-ADE1-FA5C547CF352}" name="17" dataDxfId="186"/>
+    <tableColumn id="25" xr3:uid="{57493BBD-5BB5-4231-87DF-1297CD7005B4}" name="18" dataDxfId="185"/>
+    <tableColumn id="26" xr3:uid="{03908DBF-19B5-4D25-80D4-94E98C2BFD28}" name="Q2/Y2024" dataDxfId="184"/>
+    <tableColumn id="27" xr3:uid="{881AD3CD-0B8A-4877-B496-203BC5D3201B}" name="19" dataDxfId="183"/>
+    <tableColumn id="28" xr3:uid="{AE5EF4B0-9EC0-4AB3-BEF1-205832C66924}" name="20" dataDxfId="182"/>
+    <tableColumn id="29" xr3:uid="{4BE7ED1B-DC91-4AB4-B3B9-7A69631913A2}" name="21" dataDxfId="181"/>
+    <tableColumn id="30" xr3:uid="{FEE08C26-ACFD-442B-85C2-4B2C0ABA36B5}" name="Q3/Y2024" dataDxfId="180"/>
+    <tableColumn id="31" xr3:uid="{19FE2DEF-7000-4EC2-AE8A-BB38A834EE9D}" name="22" dataDxfId="179"/>
+    <tableColumn id="32" xr3:uid="{D7E51146-DF58-4ECF-B648-34C82D1E9B7D}" name="23" dataDxfId="178"/>
+    <tableColumn id="33" xr3:uid="{19A778EC-DC56-45F2-8495-C66483455101}" name="24" dataDxfId="177"/>
+    <tableColumn id="34" xr3:uid="{059BF48B-850F-4989-841C-D76325461A76}" name="Q4/Y2024" dataDxfId="176"/>
+    <tableColumn id="35" xr3:uid="{31852B9A-9DB1-4983-A08E-1F7F07DC2E23}" name="Y2024" dataDxfId="175"/>
+    <tableColumn id="36" xr3:uid="{61B9FD08-261F-42A8-B0C1-0CE0BCD551F8}" name="25" dataDxfId="174"/>
+    <tableColumn id="37" xr3:uid="{C2066E16-2F1D-41EF-A13F-966032444BFC}" name="26" dataDxfId="173"/>
+    <tableColumn id="38" xr3:uid="{9AC876B7-F5B8-493B-AF2D-7502DBE39E39}" name="27" dataDxfId="172"/>
+    <tableColumn id="39" xr3:uid="{99E03A8D-712D-46C2-9232-8FEA0B9D11D0}" name="Q1/Y2025" dataDxfId="171"/>
+    <tableColumn id="40" xr3:uid="{668E476B-3D8E-4D1D-93C1-5068CC41C7CD}" name="28" dataDxfId="170"/>
+    <tableColumn id="41" xr3:uid="{E7D8F79C-FDCA-41E1-B2BA-07F3F144935C}" name="29" dataDxfId="169"/>
+    <tableColumn id="42" xr3:uid="{3D89B74C-C2A0-4813-9623-0BDA76B5808A}" name="30" dataDxfId="168"/>
+    <tableColumn id="43" xr3:uid="{8994880D-EF06-42CA-9922-0B5F7A4EF113}" name="Q2/Y2025" dataDxfId="167"/>
+    <tableColumn id="44" xr3:uid="{957C28CF-A390-4C2E-BE37-C2E1CF563C75}" name="31" dataDxfId="166"/>
+    <tableColumn id="45" xr3:uid="{D13EC791-5C40-4904-B478-D62FBF904B8D}" name="32" dataDxfId="165"/>
+    <tableColumn id="46" xr3:uid="{E4DC29AB-114C-4C8A-8A40-F9532EAD9C7C}" name="33" dataDxfId="164"/>
+    <tableColumn id="47" xr3:uid="{6E49EB8B-5A1D-4BFC-9946-21854C3A5F9C}" name="Q3/Y2025" dataDxfId="163"/>
+    <tableColumn id="48" xr3:uid="{74B82EF2-1C38-48A5-88A6-914CED8B9897}" name="34" dataDxfId="162"/>
+    <tableColumn id="49" xr3:uid="{D2078578-4AE8-4FA1-A54A-EB7E0D184C97}" name="35" dataDxfId="161"/>
+    <tableColumn id="50" xr3:uid="{D41045AC-4A28-4160-92A6-73B94C8248E4}" name="36" dataDxfId="160"/>
+    <tableColumn id="51" xr3:uid="{2BAD1F2F-0324-4FC2-9D1E-5E2357A79B5F}" name="Q4/Y2025" dataDxfId="159"/>
+    <tableColumn id="52" xr3:uid="{DA05EE0B-7CF9-4688-A7DF-FC35F08BAD9C}" name="Y2025" dataDxfId="158"/>
+    <tableColumn id="53" xr3:uid="{626962A3-B504-479E-8B0A-5812C28C404E}" name="37" dataDxfId="157"/>
+    <tableColumn id="54" xr3:uid="{84EA7E40-EF56-4CCF-97A8-15FB3FD6E26A}" name="38" dataDxfId="156"/>
+    <tableColumn id="55" xr3:uid="{0AEE2E9A-92DA-4494-A63B-4C45D35FDC12}" name="39" dataDxfId="155"/>
+    <tableColumn id="56" xr3:uid="{C9F78675-CC94-4A2C-9EF0-5F2421C5C0EC}" name="Q1/Y2026" dataDxfId="154"/>
+    <tableColumn id="57" xr3:uid="{AE3FDC10-8C44-49B7-B2EC-394DD8397C4B}" name="40" dataDxfId="153"/>
+    <tableColumn id="58" xr3:uid="{FD5E53E9-AB32-494D-9BB9-BC702CC1C0CC}" name="41" dataDxfId="152"/>
+    <tableColumn id="59" xr3:uid="{BD7AEBD4-FDCF-4800-ADEB-606A5E9762BA}" name="42" dataDxfId="151"/>
+    <tableColumn id="60" xr3:uid="{C44E3524-4401-4F3B-96DF-64D6C5213EAF}" name="Q2/Y2026" dataDxfId="150"/>
+    <tableColumn id="61" xr3:uid="{484E5183-CE51-4457-B460-2C767E8EE3E7}" name="43" dataDxfId="149"/>
+    <tableColumn id="62" xr3:uid="{4DF25424-246F-4820-96D5-1BFBEC0CFCA5}" name="44" dataDxfId="148"/>
+    <tableColumn id="63" xr3:uid="{4B47EC0C-2804-4B03-8348-83319BAF947E}" name="45" dataDxfId="147"/>
+    <tableColumn id="64" xr3:uid="{BADB7E9E-BF84-43A9-9394-D9908F64454C}" name="Q3/Y2026" dataDxfId="146"/>
+    <tableColumn id="65" xr3:uid="{BC5FBC9D-C5D4-4B99-B269-5FD1F4353538}" name="46" dataDxfId="145"/>
+    <tableColumn id="66" xr3:uid="{C02795F1-F04F-4EB8-A352-026124518C34}" name="47" dataDxfId="144"/>
+    <tableColumn id="67" xr3:uid="{5E713E18-52F6-4F2A-8A69-95C2ADE51AE2}" name="48" dataDxfId="143"/>
+    <tableColumn id="68" xr3:uid="{17D3204F-CEF4-46E0-9950-FC97FEF23A47}" name="Q4/Y2026" dataDxfId="142"/>
     <tableColumn id="69" xr3:uid="{A3CBA48F-7D7A-44D3-B82C-42EC995CB276}" name="Y2026" dataCellStyle="Фінансовий"/>
     <tableColumn id="70" xr3:uid="{2BBC1F43-96C2-401C-B673-26698D318742}" name="TOTALS" dataCellStyle="Фінансовий"/>
   </tableColumns>
@@ -1547,158 +2737,176 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{20DF28A6-0A5C-49A1-817C-BADA28A06C56}" name="Таблиця3" displayName="Таблиця3" ref="A1:BR12" totalsRowShown="0" headerRowDxfId="206" headerRowBorderDxfId="207" tableBorderDxfId="208">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{20DF28A6-0A5C-49A1-817C-BADA28A06C56}" name="Таблиця3" displayName="Таблиця3" ref="A1:BR12" totalsRowShown="0" headerRowDxfId="141" headerRowBorderDxfId="140" tableBorderDxfId="139">
   <autoFilter ref="A1:BR12" xr:uid="{20DF28A6-0A5C-49A1-817C-BADA28A06C56}"/>
   <tableColumns count="70">
-    <tableColumn id="1" xr3:uid="{82587812-1B77-4592-A1B5-C384B1DFC839}" name="user" dataDxfId="134"/>
-    <tableColumn id="2" xr3:uid="{F8A26879-9656-4825-8FCC-BF0F70FA38DC}" name="1" dataDxfId="133"/>
-    <tableColumn id="3" xr3:uid="{5514F760-E6D2-4103-B9F6-D571F6C7B495}" name="2" dataDxfId="132"/>
-    <tableColumn id="4" xr3:uid="{8D39581F-06BE-4430-A2A2-2B348B95763D}" name="3" dataDxfId="131"/>
-    <tableColumn id="5" xr3:uid="{7B98F628-CD0C-4303-8D6E-B28A92B188AD}" name="Q1/Y2023" dataDxfId="130"/>
-    <tableColumn id="6" xr3:uid="{9D9BCAE0-3E22-4490-AF92-D546736491AA}" name="4" dataDxfId="129"/>
-    <tableColumn id="7" xr3:uid="{F64F4012-FE22-4D58-9500-7349AFA6E637}" name="5" dataDxfId="128"/>
-    <tableColumn id="8" xr3:uid="{7F439525-6D49-4118-8FFF-76476B965282}" name="6" dataDxfId="127"/>
-    <tableColumn id="9" xr3:uid="{7D12CCCB-561C-40BE-83A3-C4C10EC75527}" name="Q2/Y2023" dataDxfId="126"/>
-    <tableColumn id="10" xr3:uid="{77234390-2192-4F04-9ECD-DE516288D234}" name="7" dataDxfId="125"/>
-    <tableColumn id="11" xr3:uid="{42F66266-3B0D-4010-BE15-2F022429670E}" name="8" dataDxfId="124"/>
-    <tableColumn id="12" xr3:uid="{32A6157E-865C-41D4-BC09-244EAE3E55DB}" name="9" dataDxfId="123"/>
-    <tableColumn id="13" xr3:uid="{8FDFA17B-F9EC-4AB2-94E2-CAE539B46EF8}" name="Q3/Y2023" dataDxfId="122"/>
-    <tableColumn id="14" xr3:uid="{A4F9530B-0080-4B32-B20E-68693093252E}" name="10" dataDxfId="121"/>
-    <tableColumn id="15" xr3:uid="{7AC7834C-E835-4A92-9FFF-B5831176FD87}" name="11" dataDxfId="120"/>
-    <tableColumn id="16" xr3:uid="{AD1DB40D-FB85-48A7-B0B2-3EF99BD986B4}" name="12" dataDxfId="119"/>
-    <tableColumn id="17" xr3:uid="{F57A0383-D222-4AFA-9277-0365794F7C02}" name="Q4/Y2023" dataDxfId="118"/>
-    <tableColumn id="18" xr3:uid="{CD81F970-127C-4D08-8888-CCFC49F48E00}" name="Y2023" dataDxfId="117"/>
-    <tableColumn id="19" xr3:uid="{C7467C70-0E57-4BB7-8D04-334C4F56AECC}" name="13" dataDxfId="116"/>
-    <tableColumn id="20" xr3:uid="{1250FD47-D6E1-4604-BF07-E2735868590A}" name="14" dataDxfId="115"/>
-    <tableColumn id="21" xr3:uid="{3484D07B-D6B6-48B8-A610-6403DA9CAAB9}" name="15" dataDxfId="114"/>
-    <tableColumn id="22" xr3:uid="{5C16773E-8682-463B-9381-C8C16C5A9A41}" name="Q1/Y2024" dataDxfId="113"/>
-    <tableColumn id="23" xr3:uid="{240803C1-F78C-454A-816E-81AB4C3174D7}" name="16" dataDxfId="112"/>
-    <tableColumn id="24" xr3:uid="{C9F84CF1-32D6-43C9-A31F-7A17C07DD69D}" name="17" dataDxfId="111"/>
-    <tableColumn id="25" xr3:uid="{24609577-9369-42A6-8CFB-6FF09429C0CB}" name="18" dataDxfId="110"/>
-    <tableColumn id="26" xr3:uid="{7E3C09F9-F008-4089-B6B0-D4EC8D4636A0}" name="Q2/Y2024" dataDxfId="109"/>
-    <tableColumn id="27" xr3:uid="{082410D5-1EFD-4FA6-9F08-5B0E6805A09C}" name="19" dataDxfId="108"/>
-    <tableColumn id="28" xr3:uid="{27302C22-6D89-4F68-969A-4B3A6E6C546C}" name="20" dataDxfId="107"/>
-    <tableColumn id="29" xr3:uid="{EF73ABC5-D1D9-45DB-B627-9EBD7B43C374}" name="21" dataDxfId="106"/>
-    <tableColumn id="30" xr3:uid="{ECBCC82C-3014-441E-8DB8-1E192097452D}" name="Q3/Y2024" dataDxfId="105"/>
-    <tableColumn id="31" xr3:uid="{62588E74-F512-49B8-A2C3-A002FECB3346}" name="22" dataDxfId="104"/>
-    <tableColumn id="32" xr3:uid="{4C2E1AAD-9B74-40F7-8C1E-6AF664641D3E}" name="23" dataDxfId="103"/>
-    <tableColumn id="33" xr3:uid="{5C955015-FAD2-4480-8972-8D7E5094DF80}" name="24" dataDxfId="102"/>
-    <tableColumn id="34" xr3:uid="{368A1528-199E-4123-8B2F-B6B17F2DF8B6}" name="Q4/Y2024" dataDxfId="101"/>
-    <tableColumn id="35" xr3:uid="{4C2B878F-EBD5-41E1-8E35-64FE452ADAB2}" name="Y2024" dataDxfId="100"/>
-    <tableColumn id="36" xr3:uid="{B16BA2CB-FA04-4719-854B-49F5A74254B5}" name="25" dataDxfId="99"/>
-    <tableColumn id="37" xr3:uid="{A87B2663-EBFC-4829-9A8A-D32D72A29616}" name="26" dataDxfId="98"/>
-    <tableColumn id="38" xr3:uid="{841926B7-0D21-4FD5-9E8A-B73A7C45D21C}" name="27" dataDxfId="97"/>
-    <tableColumn id="39" xr3:uid="{70656B3E-A464-4989-B1B3-D600F08CC49B}" name="Q1/Y2025" dataDxfId="96"/>
-    <tableColumn id="40" xr3:uid="{B1E9621C-7B75-4370-A61D-260ECE45B122}" name="28" dataDxfId="95"/>
-    <tableColumn id="41" xr3:uid="{A7CC350E-A3B8-442E-B6F7-CD00CA681ECE}" name="29" dataDxfId="94"/>
-    <tableColumn id="42" xr3:uid="{2262AD32-F006-4E3E-BDEE-7A761A5AAB0C}" name="30" dataDxfId="93"/>
-    <tableColumn id="43" xr3:uid="{B3A108C8-68F8-4341-B1F0-7E2E25FC53EC}" name="Q2/Y2025" dataDxfId="92"/>
-    <tableColumn id="44" xr3:uid="{5BB2ECCE-4B9B-4C4E-8D11-65CD330B4EE9}" name="31" dataDxfId="91"/>
-    <tableColumn id="45" xr3:uid="{8F12C1DE-958E-427E-AB6C-1CDA808E2C6F}" name="32" dataDxfId="90"/>
-    <tableColumn id="46" xr3:uid="{9D8AE284-59CA-438D-83B5-F072043AABAD}" name="33" dataDxfId="89"/>
-    <tableColumn id="47" xr3:uid="{3A18E90A-BC66-4D45-9AD3-165EF0FD189A}" name="Q3/Y2025" dataDxfId="88"/>
-    <tableColumn id="48" xr3:uid="{9EFF4AA6-536B-41BD-B06B-14C3A8D87569}" name="34" dataDxfId="87"/>
-    <tableColumn id="49" xr3:uid="{6F935C09-BCDD-4A28-ADFE-1216FF831FB7}" name="35" dataDxfId="86"/>
-    <tableColumn id="50" xr3:uid="{D34D254E-07D4-48DB-B661-72357EAABB8D}" name="36" dataDxfId="85"/>
-    <tableColumn id="51" xr3:uid="{B8623921-FFCC-4246-AD75-8D2760AE0FE1}" name="Q4/Y2025" dataDxfId="84"/>
-    <tableColumn id="52" xr3:uid="{0152FC43-9236-49E9-8FE8-16110B308A4A}" name="Y2025" dataDxfId="83"/>
-    <tableColumn id="53" xr3:uid="{6FADC48C-BCFB-4EC4-BAD2-D62C98F34A1F}" name="37" dataDxfId="82"/>
-    <tableColumn id="54" xr3:uid="{83CEAD3B-892A-4C57-82B1-58EE90B8F46D}" name="38" dataDxfId="81"/>
-    <tableColumn id="55" xr3:uid="{50B5F87D-E6D6-44A3-B599-0C58FAEB8D4A}" name="39" dataDxfId="80"/>
-    <tableColumn id="56" xr3:uid="{A3EB3C42-12C6-41AB-B43B-B6C2704BCBF3}" name="Q1/Y2026" dataDxfId="79"/>
-    <tableColumn id="57" xr3:uid="{B7CC0F42-564C-4038-A716-2564AFC1F223}" name="40" dataDxfId="78"/>
-    <tableColumn id="58" xr3:uid="{FAFBB364-22E8-4453-8AA3-E81A327C3EFB}" name="41" dataDxfId="77"/>
-    <tableColumn id="59" xr3:uid="{690D0379-4CB3-4EFE-B3D5-A4043890A5EC}" name="42" dataDxfId="76"/>
-    <tableColumn id="60" xr3:uid="{AF9E117F-D028-4B29-94B1-A608BB4EFE1F}" name="Q2/Y2026" dataDxfId="75"/>
-    <tableColumn id="61" xr3:uid="{E49C9E27-0DE6-47BE-A5F0-4D54A0DC21E8}" name="43" dataDxfId="74"/>
-    <tableColumn id="62" xr3:uid="{108BD9AA-AAE1-4030-B385-DDCFBB2F0D10}" name="44" dataDxfId="73"/>
-    <tableColumn id="63" xr3:uid="{0A851C45-F2F7-4D4F-9593-1F5712AF1130}" name="45" dataDxfId="72"/>
-    <tableColumn id="64" xr3:uid="{0087B433-F266-4E50-8B08-81B094B7C68E}" name="Q3/Y2026" dataDxfId="71"/>
-    <tableColumn id="65" xr3:uid="{E06C4B69-EB53-4BC4-A16B-F2A355873705}" name="46" dataDxfId="70"/>
-    <tableColumn id="66" xr3:uid="{77D10819-6692-4682-A3B6-ACE61DB15052}" name="47" dataDxfId="69"/>
-    <tableColumn id="67" xr3:uid="{5256C64F-B5B8-49D5-B836-57D26154BA3F}" name="48" dataDxfId="68"/>
-    <tableColumn id="68" xr3:uid="{D4207FCE-30DC-4B44-A1E5-9B2897238BA4}" name="Q4/Y2026" dataDxfId="67"/>
-    <tableColumn id="69" xr3:uid="{B6568ABA-5894-4694-BF6B-FC99CB7F93D5}" name="Y2026" dataDxfId="66"/>
-    <tableColumn id="70" xr3:uid="{AE7676B1-7775-4906-A5DC-48133CDF5640}" name="TOTALS" dataDxfId="65"/>
+    <tableColumn id="1" xr3:uid="{82587812-1B77-4592-A1B5-C384B1DFC839}" name="user" dataDxfId="138"/>
+    <tableColumn id="2" xr3:uid="{F8A26879-9656-4825-8FCC-BF0F70FA38DC}" name="1" dataDxfId="137"/>
+    <tableColumn id="3" xr3:uid="{5514F760-E6D2-4103-B9F6-D571F6C7B495}" name="2" dataDxfId="136"/>
+    <tableColumn id="4" xr3:uid="{8D39581F-06BE-4430-A2A2-2B348B95763D}" name="3" dataDxfId="135"/>
+    <tableColumn id="5" xr3:uid="{7B98F628-CD0C-4303-8D6E-B28A92B188AD}" name="Q1/Y2023" dataDxfId="134"/>
+    <tableColumn id="6" xr3:uid="{9D9BCAE0-3E22-4490-AF92-D546736491AA}" name="4" dataDxfId="133"/>
+    <tableColumn id="7" xr3:uid="{F64F4012-FE22-4D58-9500-7349AFA6E637}" name="5" dataDxfId="132"/>
+    <tableColumn id="8" xr3:uid="{7F439525-6D49-4118-8FFF-76476B965282}" name="6" dataDxfId="131"/>
+    <tableColumn id="9" xr3:uid="{7D12CCCB-561C-40BE-83A3-C4C10EC75527}" name="Q2/Y2023" dataDxfId="130"/>
+    <tableColumn id="10" xr3:uid="{77234390-2192-4F04-9ECD-DE516288D234}" name="7" dataDxfId="129"/>
+    <tableColumn id="11" xr3:uid="{42F66266-3B0D-4010-BE15-2F022429670E}" name="8" dataDxfId="128"/>
+    <tableColumn id="12" xr3:uid="{32A6157E-865C-41D4-BC09-244EAE3E55DB}" name="9" dataDxfId="127"/>
+    <tableColumn id="13" xr3:uid="{8FDFA17B-F9EC-4AB2-94E2-CAE539B46EF8}" name="Q3/Y2023" dataDxfId="126"/>
+    <tableColumn id="14" xr3:uid="{A4F9530B-0080-4B32-B20E-68693093252E}" name="10" dataDxfId="125"/>
+    <tableColumn id="15" xr3:uid="{7AC7834C-E835-4A92-9FFF-B5831176FD87}" name="11" dataDxfId="124"/>
+    <tableColumn id="16" xr3:uid="{AD1DB40D-FB85-48A7-B0B2-3EF99BD986B4}" name="12" dataDxfId="123"/>
+    <tableColumn id="17" xr3:uid="{F57A0383-D222-4AFA-9277-0365794F7C02}" name="Q4/Y2023" dataDxfId="122"/>
+    <tableColumn id="18" xr3:uid="{CD81F970-127C-4D08-8888-CCFC49F48E00}" name="Y2023" dataDxfId="121"/>
+    <tableColumn id="19" xr3:uid="{C7467C70-0E57-4BB7-8D04-334C4F56AECC}" name="13" dataDxfId="120"/>
+    <tableColumn id="20" xr3:uid="{1250FD47-D6E1-4604-BF07-E2735868590A}" name="14" dataDxfId="119"/>
+    <tableColumn id="21" xr3:uid="{3484D07B-D6B6-48B8-A610-6403DA9CAAB9}" name="15" dataDxfId="118"/>
+    <tableColumn id="22" xr3:uid="{5C16773E-8682-463B-9381-C8C16C5A9A41}" name="Q1/Y2024" dataDxfId="117"/>
+    <tableColumn id="23" xr3:uid="{240803C1-F78C-454A-816E-81AB4C3174D7}" name="16" dataDxfId="116"/>
+    <tableColumn id="24" xr3:uid="{C9F84CF1-32D6-43C9-A31F-7A17C07DD69D}" name="17" dataDxfId="115"/>
+    <tableColumn id="25" xr3:uid="{24609577-9369-42A6-8CFB-6FF09429C0CB}" name="18" dataDxfId="114"/>
+    <tableColumn id="26" xr3:uid="{7E3C09F9-F008-4089-B6B0-D4EC8D4636A0}" name="Q2/Y2024" dataDxfId="113"/>
+    <tableColumn id="27" xr3:uid="{082410D5-1EFD-4FA6-9F08-5B0E6805A09C}" name="19" dataDxfId="112"/>
+    <tableColumn id="28" xr3:uid="{27302C22-6D89-4F68-969A-4B3A6E6C546C}" name="20" dataDxfId="111"/>
+    <tableColumn id="29" xr3:uid="{EF73ABC5-D1D9-45DB-B627-9EBD7B43C374}" name="21" dataDxfId="110"/>
+    <tableColumn id="30" xr3:uid="{ECBCC82C-3014-441E-8DB8-1E192097452D}" name="Q3/Y2024" dataDxfId="109"/>
+    <tableColumn id="31" xr3:uid="{62588E74-F512-49B8-A2C3-A002FECB3346}" name="22" dataDxfId="108"/>
+    <tableColumn id="32" xr3:uid="{4C2E1AAD-9B74-40F7-8C1E-6AF664641D3E}" name="23" dataDxfId="107"/>
+    <tableColumn id="33" xr3:uid="{5C955015-FAD2-4480-8972-8D7E5094DF80}" name="24" dataDxfId="106"/>
+    <tableColumn id="34" xr3:uid="{368A1528-199E-4123-8B2F-B6B17F2DF8B6}" name="Q4/Y2024" dataDxfId="105"/>
+    <tableColumn id="35" xr3:uid="{4C2B878F-EBD5-41E1-8E35-64FE452ADAB2}" name="Y2024" dataDxfId="104"/>
+    <tableColumn id="36" xr3:uid="{B16BA2CB-FA04-4719-854B-49F5A74254B5}" name="25" dataDxfId="103"/>
+    <tableColumn id="37" xr3:uid="{A87B2663-EBFC-4829-9A8A-D32D72A29616}" name="26" dataDxfId="102"/>
+    <tableColumn id="38" xr3:uid="{841926B7-0D21-4FD5-9E8A-B73A7C45D21C}" name="27" dataDxfId="101"/>
+    <tableColumn id="39" xr3:uid="{70656B3E-A464-4989-B1B3-D600F08CC49B}" name="Q1/Y2025" dataDxfId="100"/>
+    <tableColumn id="40" xr3:uid="{B1E9621C-7B75-4370-A61D-260ECE45B122}" name="28" dataDxfId="99"/>
+    <tableColumn id="41" xr3:uid="{A7CC350E-A3B8-442E-B6F7-CD00CA681ECE}" name="29" dataDxfId="98"/>
+    <tableColumn id="42" xr3:uid="{2262AD32-F006-4E3E-BDEE-7A761A5AAB0C}" name="30" dataDxfId="97"/>
+    <tableColumn id="43" xr3:uid="{B3A108C8-68F8-4341-B1F0-7E2E25FC53EC}" name="Q2/Y2025" dataDxfId="96"/>
+    <tableColumn id="44" xr3:uid="{5BB2ECCE-4B9B-4C4E-8D11-65CD330B4EE9}" name="31" dataDxfId="95"/>
+    <tableColumn id="45" xr3:uid="{8F12C1DE-958E-427E-AB6C-1CDA808E2C6F}" name="32" dataDxfId="94"/>
+    <tableColumn id="46" xr3:uid="{9D8AE284-59CA-438D-83B5-F072043AABAD}" name="33" dataDxfId="93"/>
+    <tableColumn id="47" xr3:uid="{3A18E90A-BC66-4D45-9AD3-165EF0FD189A}" name="Q3/Y2025" dataDxfId="92"/>
+    <tableColumn id="48" xr3:uid="{9EFF4AA6-536B-41BD-B06B-14C3A8D87569}" name="34" dataDxfId="91"/>
+    <tableColumn id="49" xr3:uid="{6F935C09-BCDD-4A28-ADFE-1216FF831FB7}" name="35" dataDxfId="90"/>
+    <tableColumn id="50" xr3:uid="{D34D254E-07D4-48DB-B661-72357EAABB8D}" name="36" dataDxfId="89"/>
+    <tableColumn id="51" xr3:uid="{B8623921-FFCC-4246-AD75-8D2760AE0FE1}" name="Q4/Y2025" dataDxfId="88"/>
+    <tableColumn id="52" xr3:uid="{0152FC43-9236-49E9-8FE8-16110B308A4A}" name="Y2025" dataDxfId="87"/>
+    <tableColumn id="53" xr3:uid="{6FADC48C-BCFB-4EC4-BAD2-D62C98F34A1F}" name="37" dataDxfId="86"/>
+    <tableColumn id="54" xr3:uid="{83CEAD3B-892A-4C57-82B1-58EE90B8F46D}" name="38" dataDxfId="85"/>
+    <tableColumn id="55" xr3:uid="{50B5F87D-E6D6-44A3-B599-0C58FAEB8D4A}" name="39" dataDxfId="84"/>
+    <tableColumn id="56" xr3:uid="{A3EB3C42-12C6-41AB-B43B-B6C2704BCBF3}" name="Q1/Y2026" dataDxfId="83"/>
+    <tableColumn id="57" xr3:uid="{B7CC0F42-564C-4038-A716-2564AFC1F223}" name="40" dataDxfId="82"/>
+    <tableColumn id="58" xr3:uid="{FAFBB364-22E8-4453-8AA3-E81A327C3EFB}" name="41" dataDxfId="81"/>
+    <tableColumn id="59" xr3:uid="{690D0379-4CB3-4EFE-B3D5-A4043890A5EC}" name="42" dataDxfId="80"/>
+    <tableColumn id="60" xr3:uid="{AF9E117F-D028-4B29-94B1-A608BB4EFE1F}" name="Q2/Y2026" dataDxfId="79"/>
+    <tableColumn id="61" xr3:uid="{E49C9E27-0DE6-47BE-A5F0-4D54A0DC21E8}" name="43" dataDxfId="78"/>
+    <tableColumn id="62" xr3:uid="{108BD9AA-AAE1-4030-B385-DDCFBB2F0D10}" name="44" dataDxfId="77"/>
+    <tableColumn id="63" xr3:uid="{0A851C45-F2F7-4D4F-9593-1F5712AF1130}" name="45" dataDxfId="76"/>
+    <tableColumn id="64" xr3:uid="{0087B433-F266-4E50-8B08-81B094B7C68E}" name="Q3/Y2026" dataDxfId="75"/>
+    <tableColumn id="65" xr3:uid="{E06C4B69-EB53-4BC4-A16B-F2A355873705}" name="46" dataDxfId="74"/>
+    <tableColumn id="66" xr3:uid="{77D10819-6692-4682-A3B6-ACE61DB15052}" name="47" dataDxfId="73"/>
+    <tableColumn id="67" xr3:uid="{5256C64F-B5B8-49D5-B836-57D26154BA3F}" name="48" dataDxfId="72"/>
+    <tableColumn id="68" xr3:uid="{D4207FCE-30DC-4B44-A1E5-9B2897238BA4}" name="Q4/Y2026" dataDxfId="71"/>
+    <tableColumn id="69" xr3:uid="{B6568ABA-5894-4694-BF6B-FC99CB7F93D5}" name="Y2026" dataDxfId="70"/>
+    <tableColumn id="70" xr3:uid="{AE7676B1-7775-4906-A5DC-48133CDF5640}" name="TOTALS" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E017C3E6-C7D8-4F3F-AA0D-E57DAB28A291}" name="Таблиця2" displayName="Таблиця2" ref="A1:BR6" totalsRowShown="0" headerRowDxfId="209">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E017C3E6-C7D8-4F3F-AA0D-E57DAB28A291}" name="Таблиця2" displayName="Таблиця2" ref="A1:BR6" totalsRowShown="0" headerRowDxfId="68">
   <autoFilter ref="A1:BR6" xr:uid="{E017C3E6-C7D8-4F3F-AA0D-E57DAB28A291}"/>
   <tableColumns count="70">
-    <tableColumn id="1" xr3:uid="{CF28E566-5559-4EB1-949A-5EB8DCB0F64F}" name="Budget items↓ || M, Q, Y→" dataDxfId="64"/>
-    <tableColumn id="2" xr3:uid="{F2A32D79-6ADB-4A48-87C8-7E767973D8A8}" name="1" dataDxfId="63"/>
-    <tableColumn id="3" xr3:uid="{1E2F404D-757D-4F7A-9740-81C916E8B2DE}" name="2" dataDxfId="62"/>
-    <tableColumn id="4" xr3:uid="{F641A345-B563-4E97-9C31-02AE10539CB5}" name="3" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{CB222915-66DF-4C1F-9799-134C787B3787}" name="Q1/Y2023" dataDxfId="60"/>
-    <tableColumn id="6" xr3:uid="{3A59CB7B-1C45-4B3A-A7EB-D751F701B73B}" name="4" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{8E3E909C-CCCD-4F52-9908-8C5647025CAF}" name="5" dataDxfId="58"/>
-    <tableColumn id="8" xr3:uid="{5D477BFB-8127-4C25-994A-D747627197AD}" name="6" dataDxfId="57"/>
-    <tableColumn id="9" xr3:uid="{455B72F1-9570-491A-BD92-1D47F53B92C5}" name="Q2/Y2023" dataDxfId="56"/>
-    <tableColumn id="10" xr3:uid="{3CED163E-1B55-4A6B-B941-D217B9051A46}" name="7" dataDxfId="55"/>
-    <tableColumn id="11" xr3:uid="{1D56CA01-AE37-4E54-9A62-6BB05D9054F7}" name="8" dataDxfId="54"/>
-    <tableColumn id="12" xr3:uid="{FEBD9D26-139E-4EA7-8438-CB2D55C18083}" name="9" dataDxfId="53"/>
-    <tableColumn id="13" xr3:uid="{2EB532DC-3A39-4FEB-895B-03517FF58125}" name="Q3/Y2023" dataDxfId="52"/>
-    <tableColumn id="14" xr3:uid="{B9E1B095-3E2A-477A-8D2D-A50301B74AD4}" name="10" dataDxfId="51"/>
-    <tableColumn id="15" xr3:uid="{2584AB15-4B47-42E6-810A-CEE986FE4C04}" name="11" dataDxfId="50"/>
-    <tableColumn id="16" xr3:uid="{628F3D78-1437-45A9-A710-A8EFF9F76BDE}" name="12" dataDxfId="49"/>
-    <tableColumn id="17" xr3:uid="{5A841CEC-6835-4741-9D0C-A59D4518EBEF}" name="Q4/Y2023" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{CF28E566-5559-4EB1-949A-5EB8DCB0F64F}" name="Budget items↓ || M, Q, Y→" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{F2A32D79-6ADB-4A48-87C8-7E767973D8A8}" name="1" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{1E2F404D-757D-4F7A-9740-81C916E8B2DE}" name="2" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{F641A345-B563-4E97-9C31-02AE10539CB5}" name="3" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{CB222915-66DF-4C1F-9799-134C787B3787}" name="Q1/Y2023" dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{3A59CB7B-1C45-4B3A-A7EB-D751F701B73B}" name="4" dataDxfId="62"/>
+    <tableColumn id="7" xr3:uid="{8E3E909C-CCCD-4F52-9908-8C5647025CAF}" name="5" dataDxfId="61"/>
+    <tableColumn id="8" xr3:uid="{5D477BFB-8127-4C25-994A-D747627197AD}" name="6" dataDxfId="60"/>
+    <tableColumn id="9" xr3:uid="{455B72F1-9570-491A-BD92-1D47F53B92C5}" name="Q2/Y2023" dataDxfId="59"/>
+    <tableColumn id="10" xr3:uid="{3CED163E-1B55-4A6B-B941-D217B9051A46}" name="7" dataDxfId="58"/>
+    <tableColumn id="11" xr3:uid="{1D56CA01-AE37-4E54-9A62-6BB05D9054F7}" name="8" dataDxfId="57"/>
+    <tableColumn id="12" xr3:uid="{FEBD9D26-139E-4EA7-8438-CB2D55C18083}" name="9" dataDxfId="56"/>
+    <tableColumn id="13" xr3:uid="{2EB532DC-3A39-4FEB-895B-03517FF58125}" name="Q3/Y2023" dataDxfId="55"/>
+    <tableColumn id="14" xr3:uid="{B9E1B095-3E2A-477A-8D2D-A50301B74AD4}" name="10" dataDxfId="54"/>
+    <tableColumn id="15" xr3:uid="{2584AB15-4B47-42E6-810A-CEE986FE4C04}" name="11" dataDxfId="53"/>
+    <tableColumn id="16" xr3:uid="{628F3D78-1437-45A9-A710-A8EFF9F76BDE}" name="12" dataDxfId="52"/>
+    <tableColumn id="17" xr3:uid="{5A841CEC-6835-4741-9D0C-A59D4518EBEF}" name="Q4/Y2023" dataDxfId="51"/>
     <tableColumn id="18" xr3:uid="{59377B63-019D-4D5A-B122-D8A1E9031CEC}" name="Y2023" dataCellStyle="Фінансовий"/>
-    <tableColumn id="19" xr3:uid="{A299FA2F-172D-4485-ADB9-B1199E428678}" name="13" dataDxfId="47"/>
-    <tableColumn id="20" xr3:uid="{C4EAB2A9-569E-4A8F-8B5F-3F6782A67C8B}" name="14" dataDxfId="46"/>
-    <tableColumn id="21" xr3:uid="{E81955C0-55F9-49CB-B43A-77BAC875EFD1}" name="15" dataDxfId="45"/>
-    <tableColumn id="22" xr3:uid="{B47D6D2D-BEBD-4EFD-842D-7C05A0EF9567}" name="Q1/Y2024" dataDxfId="44"/>
-    <tableColumn id="23" xr3:uid="{B4FB597A-C8CB-4EEA-878C-FC181CC93E0D}" name="16" dataDxfId="43"/>
-    <tableColumn id="24" xr3:uid="{0AF5380B-63FF-4BAA-8807-CF6FC6020525}" name="17" dataDxfId="42"/>
-    <tableColumn id="25" xr3:uid="{AFD4915E-CC57-47EA-8594-62AE8D100C6F}" name="18" dataDxfId="41"/>
-    <tableColumn id="26" xr3:uid="{422B933C-B59C-41D1-83D2-109C54FDEA38}" name="Q2/Y2024" dataDxfId="40"/>
-    <tableColumn id="27" xr3:uid="{C0454C77-6224-46E2-BCBE-7AEE63575A3E}" name="19" dataDxfId="39"/>
-    <tableColumn id="28" xr3:uid="{F101554B-B67A-4373-8DD5-451A5F0A8B05}" name="20" dataDxfId="38"/>
-    <tableColumn id="29" xr3:uid="{E93DFFF4-519A-40FA-85FA-D8F76B4B9C79}" name="21" dataDxfId="37"/>
-    <tableColumn id="30" xr3:uid="{FAF162C6-09FE-41CE-AA91-3AAF8726E829}" name="Q3/Y2024" dataDxfId="36"/>
-    <tableColumn id="31" xr3:uid="{302ED2A5-7687-499A-869E-664FF1238A85}" name="22" dataDxfId="35"/>
-    <tableColumn id="32" xr3:uid="{649EA6A4-0319-48BD-B0BF-786C7FA7C243}" name="23" dataDxfId="34"/>
-    <tableColumn id="33" xr3:uid="{77A21139-B42C-4598-AC3C-FAEC2BCCA921}" name="24" dataDxfId="33"/>
-    <tableColumn id="34" xr3:uid="{C3E9424E-70F7-4800-863C-AE85100B741D}" name="Q4/Y2024" dataDxfId="32"/>
+    <tableColumn id="19" xr3:uid="{A299FA2F-172D-4485-ADB9-B1199E428678}" name="13" dataDxfId="50"/>
+    <tableColumn id="20" xr3:uid="{C4EAB2A9-569E-4A8F-8B5F-3F6782A67C8B}" name="14" dataDxfId="49"/>
+    <tableColumn id="21" xr3:uid="{E81955C0-55F9-49CB-B43A-77BAC875EFD1}" name="15" dataDxfId="48"/>
+    <tableColumn id="22" xr3:uid="{B47D6D2D-BEBD-4EFD-842D-7C05A0EF9567}" name="Q1/Y2024" dataDxfId="47"/>
+    <tableColumn id="23" xr3:uid="{B4FB597A-C8CB-4EEA-878C-FC181CC93E0D}" name="16" dataDxfId="46"/>
+    <tableColumn id="24" xr3:uid="{0AF5380B-63FF-4BAA-8807-CF6FC6020525}" name="17" dataDxfId="45"/>
+    <tableColumn id="25" xr3:uid="{AFD4915E-CC57-47EA-8594-62AE8D100C6F}" name="18" dataDxfId="44"/>
+    <tableColumn id="26" xr3:uid="{422B933C-B59C-41D1-83D2-109C54FDEA38}" name="Q2/Y2024" dataDxfId="43"/>
+    <tableColumn id="27" xr3:uid="{C0454C77-6224-46E2-BCBE-7AEE63575A3E}" name="19" dataDxfId="42"/>
+    <tableColumn id="28" xr3:uid="{F101554B-B67A-4373-8DD5-451A5F0A8B05}" name="20" dataDxfId="41"/>
+    <tableColumn id="29" xr3:uid="{E93DFFF4-519A-40FA-85FA-D8F76B4B9C79}" name="21" dataDxfId="40"/>
+    <tableColumn id="30" xr3:uid="{FAF162C6-09FE-41CE-AA91-3AAF8726E829}" name="Q3/Y2024" dataDxfId="39"/>
+    <tableColumn id="31" xr3:uid="{302ED2A5-7687-499A-869E-664FF1238A85}" name="22" dataDxfId="38"/>
+    <tableColumn id="32" xr3:uid="{649EA6A4-0319-48BD-B0BF-786C7FA7C243}" name="23" dataDxfId="37"/>
+    <tableColumn id="33" xr3:uid="{77A21139-B42C-4598-AC3C-FAEC2BCCA921}" name="24" dataDxfId="36"/>
+    <tableColumn id="34" xr3:uid="{C3E9424E-70F7-4800-863C-AE85100B741D}" name="Q4/Y2024" dataDxfId="35"/>
     <tableColumn id="35" xr3:uid="{690B8563-3BBC-41C0-A8BD-A950C48F0DF2}" name="Y2024" dataCellStyle="Фінансовий"/>
-    <tableColumn id="36" xr3:uid="{FC3DB2B0-925E-49C5-A0CB-E21FB0924413}" name="25" dataDxfId="31"/>
-    <tableColumn id="37" xr3:uid="{7A8CF983-519C-4A48-853D-77A0589C27C5}" name="26" dataDxfId="30"/>
-    <tableColumn id="38" xr3:uid="{7BBED71F-3D04-4707-9385-37AE9919BC63}" name="27" dataDxfId="29"/>
-    <tableColumn id="39" xr3:uid="{0CBFE963-8670-4EDC-83CF-AA766383D943}" name="Q1/Y2025" dataDxfId="28"/>
-    <tableColumn id="40" xr3:uid="{E02457D9-22C7-41A6-99C2-3FB3327CF5DD}" name="28" dataDxfId="27"/>
-    <tableColumn id="41" xr3:uid="{498647C7-B9A3-438A-902D-63142ED5453C}" name="29" dataDxfId="26"/>
-    <tableColumn id="42" xr3:uid="{B9EAAB74-D06F-4771-8C70-8DBA61974B21}" name="30" dataDxfId="25"/>
-    <tableColumn id="43" xr3:uid="{E31EB546-9B0C-4972-B2D0-30B1A03C47AB}" name="Q2/Y2025" dataDxfId="24"/>
-    <tableColumn id="44" xr3:uid="{6DA35AA4-1514-40EC-BDFB-77B7252FEA5C}" name="31" dataDxfId="23"/>
-    <tableColumn id="45" xr3:uid="{0CDFD666-5A33-4412-9D8C-ABAF0E41C081}" name="32" dataDxfId="22"/>
-    <tableColumn id="46" xr3:uid="{3C46B825-2626-421E-935C-7C0878EBE0D3}" name="33" dataDxfId="21"/>
-    <tableColumn id="47" xr3:uid="{DD6F125F-826A-48F0-B9D3-1084024318F0}" name="Q3/Y2025" dataDxfId="20"/>
-    <tableColumn id="48" xr3:uid="{22712887-971D-49D0-9B59-6A83350EC0D1}" name="34" dataDxfId="19"/>
-    <tableColumn id="49" xr3:uid="{862F6C91-E1B2-4D4A-9EEC-6E91C72CD7B1}" name="35" dataDxfId="18"/>
-    <tableColumn id="50" xr3:uid="{99C58B64-9762-4075-A28D-DCEC93B151E5}" name="36" dataDxfId="17"/>
-    <tableColumn id="51" xr3:uid="{ACF931B5-1A45-4687-9856-9BACDA108E82}" name="Q4/Y2025" dataDxfId="16"/>
+    <tableColumn id="36" xr3:uid="{FC3DB2B0-925E-49C5-A0CB-E21FB0924413}" name="25" dataDxfId="34"/>
+    <tableColumn id="37" xr3:uid="{7A8CF983-519C-4A48-853D-77A0589C27C5}" name="26" dataDxfId="33"/>
+    <tableColumn id="38" xr3:uid="{7BBED71F-3D04-4707-9385-37AE9919BC63}" name="27" dataDxfId="32"/>
+    <tableColumn id="39" xr3:uid="{0CBFE963-8670-4EDC-83CF-AA766383D943}" name="Q1/Y2025" dataDxfId="31"/>
+    <tableColumn id="40" xr3:uid="{E02457D9-22C7-41A6-99C2-3FB3327CF5DD}" name="28" dataDxfId="30"/>
+    <tableColumn id="41" xr3:uid="{498647C7-B9A3-438A-902D-63142ED5453C}" name="29" dataDxfId="29"/>
+    <tableColumn id="42" xr3:uid="{B9EAAB74-D06F-4771-8C70-8DBA61974B21}" name="30" dataDxfId="28"/>
+    <tableColumn id="43" xr3:uid="{E31EB546-9B0C-4972-B2D0-30B1A03C47AB}" name="Q2/Y2025" dataDxfId="27"/>
+    <tableColumn id="44" xr3:uid="{6DA35AA4-1514-40EC-BDFB-77B7252FEA5C}" name="31" dataDxfId="26"/>
+    <tableColumn id="45" xr3:uid="{0CDFD666-5A33-4412-9D8C-ABAF0E41C081}" name="32" dataDxfId="25"/>
+    <tableColumn id="46" xr3:uid="{3C46B825-2626-421E-935C-7C0878EBE0D3}" name="33" dataDxfId="24"/>
+    <tableColumn id="47" xr3:uid="{DD6F125F-826A-48F0-B9D3-1084024318F0}" name="Q3/Y2025" dataDxfId="23"/>
+    <tableColumn id="48" xr3:uid="{22712887-971D-49D0-9B59-6A83350EC0D1}" name="34" dataDxfId="22"/>
+    <tableColumn id="49" xr3:uid="{862F6C91-E1B2-4D4A-9EEC-6E91C72CD7B1}" name="35" dataDxfId="21"/>
+    <tableColumn id="50" xr3:uid="{99C58B64-9762-4075-A28D-DCEC93B151E5}" name="36" dataDxfId="20"/>
+    <tableColumn id="51" xr3:uid="{ACF931B5-1A45-4687-9856-9BACDA108E82}" name="Q4/Y2025" dataDxfId="19"/>
     <tableColumn id="52" xr3:uid="{BA5C4709-B9FC-4F8B-94C0-FB4168B4AB87}" name="Y2025" dataCellStyle="Фінансовий"/>
-    <tableColumn id="53" xr3:uid="{3E886EF5-7B72-4FB1-80FB-84991FC80826}" name="37" dataDxfId="15"/>
-    <tableColumn id="54" xr3:uid="{8F92A590-22A0-4BE1-A1FC-3F0CAEE900E3}" name="38" dataDxfId="14"/>
-    <tableColumn id="55" xr3:uid="{6B193958-C7C1-4BC3-A477-B1DEC77B678E}" name="39" dataDxfId="13"/>
-    <tableColumn id="56" xr3:uid="{A6B5EAD6-37C3-443C-A9F8-7D712B5DB442}" name="Q1/Y2026" dataDxfId="12"/>
-    <tableColumn id="57" xr3:uid="{B7AA2741-FE74-45D7-9EB6-3D0E0D280610}" name="40" dataDxfId="11"/>
-    <tableColumn id="58" xr3:uid="{1E56BD8F-8AC1-4891-B2B8-568850D6C872}" name="41" dataDxfId="10"/>
-    <tableColumn id="59" xr3:uid="{39E26212-F99F-4C68-94BA-B87AB7C9D80B}" name="42" dataDxfId="9"/>
-    <tableColumn id="60" xr3:uid="{95801567-36F7-49E4-8768-D02D63EC8991}" name="Q2/Y2026" dataDxfId="8"/>
-    <tableColumn id="61" xr3:uid="{BAFA79C4-3FF9-4746-9D52-13CFB3BE27A3}" name="43" dataDxfId="7"/>
-    <tableColumn id="62" xr3:uid="{ADDF6869-ED0D-462C-9A55-97C20794196C}" name="44" dataDxfId="6"/>
-    <tableColumn id="63" xr3:uid="{D7F99C40-A0FA-4726-A64D-3BAD423381D4}" name="45" dataDxfId="5"/>
-    <tableColumn id="64" xr3:uid="{7C06FEC9-A7CE-4F1A-9B75-E52693DC0A35}" name="Q3/Y2026" dataDxfId="4"/>
-    <tableColumn id="65" xr3:uid="{55AD80D6-142F-4A5F-A678-C2B3C55F8FF4}" name="46" dataDxfId="3"/>
-    <tableColumn id="66" xr3:uid="{29F9B9DE-91DE-42E0-8E6A-A038531A0FE1}" name="47" dataDxfId="2"/>
-    <tableColumn id="67" xr3:uid="{C1B0F8B8-B635-48A3-8F37-04984188CE97}" name="48" dataDxfId="1"/>
-    <tableColumn id="68" xr3:uid="{D15AB512-613B-4B84-9D84-2B6744689B0B}" name="Q4/Y2026" dataDxfId="0"/>
+    <tableColumn id="53" xr3:uid="{3E886EF5-7B72-4FB1-80FB-84991FC80826}" name="37" dataDxfId="18"/>
+    <tableColumn id="54" xr3:uid="{8F92A590-22A0-4BE1-A1FC-3F0CAEE900E3}" name="38" dataDxfId="17"/>
+    <tableColumn id="55" xr3:uid="{6B193958-C7C1-4BC3-A477-B1DEC77B678E}" name="39" dataDxfId="16"/>
+    <tableColumn id="56" xr3:uid="{A6B5EAD6-37C3-443C-A9F8-7D712B5DB442}" name="Q1/Y2026" dataDxfId="15"/>
+    <tableColumn id="57" xr3:uid="{B7AA2741-FE74-45D7-9EB6-3D0E0D280610}" name="40" dataDxfId="14"/>
+    <tableColumn id="58" xr3:uid="{1E56BD8F-8AC1-4891-B2B8-568850D6C872}" name="41" dataDxfId="13"/>
+    <tableColumn id="59" xr3:uid="{39E26212-F99F-4C68-94BA-B87AB7C9D80B}" name="42" dataDxfId="12"/>
+    <tableColumn id="60" xr3:uid="{95801567-36F7-49E4-8768-D02D63EC8991}" name="Q2/Y2026" dataDxfId="11"/>
+    <tableColumn id="61" xr3:uid="{BAFA79C4-3FF9-4746-9D52-13CFB3BE27A3}" name="43" dataDxfId="10"/>
+    <tableColumn id="62" xr3:uid="{ADDF6869-ED0D-462C-9A55-97C20794196C}" name="44" dataDxfId="9"/>
+    <tableColumn id="63" xr3:uid="{D7F99C40-A0FA-4726-A64D-3BAD423381D4}" name="45" dataDxfId="8"/>
+    <tableColumn id="64" xr3:uid="{7C06FEC9-A7CE-4F1A-9B75-E52693DC0A35}" name="Q3/Y2026" dataDxfId="7"/>
+    <tableColumn id="65" xr3:uid="{55AD80D6-142F-4A5F-A678-C2B3C55F8FF4}" name="46" dataDxfId="6"/>
+    <tableColumn id="66" xr3:uid="{29F9B9DE-91DE-42E0-8E6A-A038531A0FE1}" name="47" dataDxfId="5"/>
+    <tableColumn id="67" xr3:uid="{C1B0F8B8-B635-48A3-8F37-04984188CE97}" name="48" dataDxfId="4"/>
+    <tableColumn id="68" xr3:uid="{D15AB512-613B-4B84-9D84-2B6744689B0B}" name="Q4/Y2026" dataDxfId="3"/>
     <tableColumn id="69" xr3:uid="{CFB84B47-7023-4552-92AE-8291BBDB09BB}" name="Y2026" dataCellStyle="Фінансовий"/>
     <tableColumn id="70" xr3:uid="{89484E17-2F2C-402E-832D-5F4221614049}" name="TOTALS" dataCellStyle="Фінансовий"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CBA39864-5985-4F1A-9921-1437AF2BB356}" name="Таблиця5" displayName="Таблиця5" ref="A1:I175" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A1:I175" xr:uid="{CBA39864-5985-4F1A-9921-1437AF2BB356}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{FDACB14F-7F36-4F10-B13B-3CA5521FF43B}" name="Subject"/>
+    <tableColumn id="2" xr3:uid="{EC083BCD-71B6-4913-B786-BA39C6E22F5D}" name="Start Date"/>
+    <tableColumn id="3" xr3:uid="{5970DEAD-A814-4600-A1BF-6FF20CA0663B}" name="Start Time"/>
+    <tableColumn id="4" xr3:uid="{53C5BDDD-1508-4E0F-B1CB-05EB30423E5C}" name="End Date"/>
+    <tableColumn id="5" xr3:uid="{7FB206BB-47BA-45E3-ABAD-C81526FBA401}" name="End Time"/>
+    <tableColumn id="6" xr3:uid="{3D64C2B8-2D27-495D-9C7B-FCABC5E67928}" name="All Day Event"/>
+    <tableColumn id="7" xr3:uid="{9C50BD77-0292-492A-ACFA-59F6326475B1}" name="Description"/>
+    <tableColumn id="8" xr3:uid="{3F94B943-2D5F-4186-8402-59EB61CAA878}" name="Location"/>
+    <tableColumn id="9" xr3:uid="{618E8B0A-630A-4A30-9139-3524EE625C64}" name="Private"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2028,7 +3236,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2322,51 +3530,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BR12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AI17" sqref="AI17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="3" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9" hidden="1" customWidth="1" outlineLevel="3"/>
     <col min="3" max="4" width="10.5546875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="5" max="5" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="5" max="5" width="11.109375" hidden="1" customWidth="1" outlineLevel="2" collapsed="1"/>
     <col min="6" max="8" width="10.5546875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="9" max="9" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="9" max="9" width="11.109375" hidden="1" customWidth="1" outlineLevel="2" collapsed="1"/>
     <col min="10" max="12" width="10.5546875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="13" max="13" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="13" max="13" width="11.109375" hidden="1" customWidth="1" outlineLevel="2" collapsed="1"/>
     <col min="14" max="16" width="10.5546875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="17" max="17" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="17" max="17" width="11.109375" hidden="1" customWidth="1" outlineLevel="2" collapsed="1"/>
     <col min="18" max="18" width="11.5546875" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="19" max="21" width="10.5546875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="22" max="22" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="22" max="22" width="11.109375" hidden="1" customWidth="1" outlineLevel="2" collapsed="1"/>
     <col min="23" max="25" width="10.5546875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="26" max="26" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="26" max="26" width="11.109375" hidden="1" customWidth="1" outlineLevel="2" collapsed="1"/>
     <col min="27" max="29" width="10.5546875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="30" max="30" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="30" max="30" width="11.109375" hidden="1" customWidth="1" outlineLevel="2" collapsed="1"/>
     <col min="31" max="33" width="10.5546875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="34" max="34" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="34" max="34" width="11.109375" hidden="1" customWidth="1" outlineLevel="2" collapsed="1"/>
     <col min="35" max="35" width="11.5546875" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="36" max="38" width="10.5546875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="39" max="39" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="39" max="39" width="11.109375" hidden="1" customWidth="1" outlineLevel="2" collapsed="1"/>
     <col min="40" max="42" width="10.5546875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="43" max="43" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="43" max="43" width="11.109375" hidden="1" customWidth="1" outlineLevel="2" collapsed="1"/>
     <col min="44" max="46" width="10.5546875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="47" max="47" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="47" max="47" width="11.109375" hidden="1" customWidth="1" outlineLevel="2" collapsed="1"/>
     <col min="48" max="50" width="10.5546875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="51" max="51" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="51" max="51" width="11.109375" hidden="1" customWidth="1" outlineLevel="2" collapsed="1"/>
     <col min="52" max="52" width="11.5546875" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="53" max="55" width="10.5546875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="56" max="56" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="56" max="56" width="11.109375" hidden="1" customWidth="1" outlineLevel="2" collapsed="1"/>
     <col min="57" max="59" width="10.5546875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="60" max="60" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="60" max="60" width="11.109375" hidden="1" customWidth="1" outlineLevel="2" collapsed="1"/>
     <col min="61" max="63" width="10.5546875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="64" max="64" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="64" max="64" width="11.109375" hidden="1" customWidth="1" outlineLevel="2" collapsed="1"/>
     <col min="65" max="67" width="10.5546875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="68" max="68" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
+    <col min="68" max="68" width="11.109375" hidden="1" customWidth="1" outlineLevel="2" collapsed="1"/>
     <col min="69" max="69" width="11.5546875" customWidth="1" outlineLevel="1" collapsed="1"/>
     <col min="70" max="70" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -4926,42 +6134,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="3" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="8.88671875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="5" max="5" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="6" max="8" width="8.88671875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="9" max="9" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="10" max="12" width="8.88671875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="13" max="13" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="14" max="16" width="8.88671875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="17" max="17" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="18" max="18" width="8.88671875" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="19" max="21" width="8.88671875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="22" max="22" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="23" max="25" width="8.88671875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="26" max="26" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="27" max="29" width="8.88671875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="30" max="30" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="31" max="33" width="8.88671875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="34" max="34" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="35" max="35" width="8.88671875" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="36" max="38" width="8.88671875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="39" max="39" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="40" max="42" width="8.88671875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="43" max="43" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="44" max="46" width="8.88671875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="47" max="47" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="48" max="50" width="8.88671875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="51" max="51" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="52" max="52" width="8.88671875" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="53" max="55" width="8.88671875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="56" max="56" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="57" max="59" width="8.88671875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="60" max="60" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="61" max="63" width="8.88671875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="64" max="64" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="65" max="67" width="8.88671875" hidden="1" customWidth="1" outlineLevel="3"/>
-    <col min="68" max="68" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="69" max="69" width="8.88671875" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="2" max="4" width="8.88671875" customWidth="1" outlineLevel="3"/>
+    <col min="5" max="5" width="11.109375" customWidth="1" outlineLevel="2"/>
+    <col min="6" max="8" width="8.88671875" customWidth="1" outlineLevel="3"/>
+    <col min="9" max="9" width="11.109375" customWidth="1" outlineLevel="2"/>
+    <col min="10" max="12" width="8.88671875" customWidth="1" outlineLevel="3"/>
+    <col min="13" max="13" width="11.109375" customWidth="1" outlineLevel="2"/>
+    <col min="14" max="16" width="8.88671875" customWidth="1" outlineLevel="3"/>
+    <col min="17" max="17" width="11.109375" customWidth="1" outlineLevel="2"/>
+    <col min="18" max="18" width="8.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="21" width="8.88671875" customWidth="1" outlineLevel="3"/>
+    <col min="22" max="22" width="11.109375" customWidth="1" outlineLevel="2"/>
+    <col min="23" max="25" width="8.88671875" customWidth="1" outlineLevel="3"/>
+    <col min="26" max="26" width="11.109375" customWidth="1" outlineLevel="2"/>
+    <col min="27" max="29" width="8.88671875" customWidth="1" outlineLevel="3"/>
+    <col min="30" max="30" width="11.109375" customWidth="1" outlineLevel="2"/>
+    <col min="31" max="33" width="8.88671875" customWidth="1" outlineLevel="3"/>
+    <col min="34" max="34" width="11.109375" customWidth="1" outlineLevel="2"/>
+    <col min="35" max="35" width="8.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="36" max="38" width="8.88671875" customWidth="1" outlineLevel="3"/>
+    <col min="39" max="39" width="11.109375" customWidth="1" outlineLevel="2"/>
+    <col min="40" max="42" width="8.88671875" customWidth="1" outlineLevel="3"/>
+    <col min="43" max="43" width="11.109375" customWidth="1" outlineLevel="2"/>
+    <col min="44" max="46" width="8.88671875" customWidth="1" outlineLevel="3"/>
+    <col min="47" max="47" width="11.109375" customWidth="1" outlineLevel="2"/>
+    <col min="48" max="50" width="8.88671875" customWidth="1" outlineLevel="3"/>
+    <col min="51" max="51" width="11.109375" customWidth="1" outlineLevel="2"/>
+    <col min="52" max="52" width="8.88671875" customWidth="1" outlineLevel="1"/>
+    <col min="53" max="55" width="8.88671875" customWidth="1" outlineLevel="3"/>
+    <col min="56" max="56" width="11.109375" customWidth="1" outlineLevel="2"/>
+    <col min="57" max="59" width="8.88671875" customWidth="1" outlineLevel="3"/>
+    <col min="60" max="60" width="11.109375" customWidth="1" outlineLevel="2"/>
+    <col min="61" max="63" width="8.88671875" customWidth="1" outlineLevel="3"/>
+    <col min="64" max="64" width="11.109375" customWidth="1" outlineLevel="2"/>
+    <col min="65" max="67" width="8.88671875" customWidth="1" outlineLevel="3"/>
+    <col min="68" max="68" width="11.109375" customWidth="1" outlineLevel="2"/>
+    <col min="69" max="69" width="8.88671875" customWidth="1" outlineLevel="1"/>
     <col min="70" max="70" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7511,11 +8719,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:BR6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="3" x14ac:dyDescent="0.3"/>
@@ -7529,7 +8737,7 @@
     <col min="13" max="13" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
     <col min="14" max="16" width="8.88671875" hidden="1" customWidth="1" outlineLevel="3"/>
     <col min="17" max="17" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="18" max="18" width="10.44140625" bestFit="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="18" max="18" width="10.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="19" max="21" width="8.88671875" hidden="1" customWidth="1" outlineLevel="3"/>
     <col min="22" max="22" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
     <col min="23" max="25" width="8.88671875" hidden="1" customWidth="1" outlineLevel="3"/>
@@ -7538,7 +8746,7 @@
     <col min="30" max="30" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
     <col min="31" max="33" width="8.88671875" hidden="1" customWidth="1" outlineLevel="3"/>
     <col min="34" max="34" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="35" max="35" width="10.44140625" bestFit="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="35" max="35" width="10.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="36" max="38" width="8.88671875" hidden="1" customWidth="1" outlineLevel="3"/>
     <col min="39" max="39" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
     <col min="40" max="42" width="8.88671875" hidden="1" customWidth="1" outlineLevel="3"/>
@@ -7547,7 +8755,7 @@
     <col min="47" max="47" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
     <col min="48" max="50" width="8.88671875" hidden="1" customWidth="1" outlineLevel="3"/>
     <col min="51" max="51" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="52" max="52" width="10.44140625" bestFit="1" customWidth="1" outlineLevel="1" collapsed="1"/>
+    <col min="52" max="52" width="10.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="53" max="55" width="8.88671875" hidden="1" customWidth="1" outlineLevel="3"/>
     <col min="56" max="56" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
     <col min="57" max="59" width="8.88671875" hidden="1" customWidth="1" outlineLevel="3"/>
@@ -7556,8 +8764,8 @@
     <col min="64" max="64" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
     <col min="65" max="67" width="8.88671875" hidden="1" customWidth="1" outlineLevel="3"/>
     <col min="68" max="68" width="11.109375" hidden="1" customWidth="1" outlineLevel="2"/>
-    <col min="69" max="69" width="10.44140625" bestFit="1" customWidth="1" outlineLevel="1" collapsed="1"/>
-    <col min="70" max="70" width="11.44140625" customWidth="1"/>
+    <col min="69" max="69" width="10.44140625" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="70" max="70" width="11.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -8830,6 +10038,4590 @@
       </c>
       <c r="BR6" s="7">
         <v>160000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3BF4813-C915-44E6-89B3-4B614F97328E}">
+  <dimension ref="A1:I175"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="7" max="7" width="53" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" t="s">
+        <v>123</v>
+      </c>
+      <c r="I3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G4" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" t="s">
+        <v>129</v>
+      </c>
+      <c r="I5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" t="s">
+        <v>118</v>
+      </c>
+      <c r="G6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>142</v>
+      </c>
+      <c r="I10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>149</v>
+      </c>
+      <c r="I13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" t="s">
+        <v>151</v>
+      </c>
+      <c r="I14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" t="s">
+        <v>153</v>
+      </c>
+      <c r="I15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" t="s">
+        <v>156</v>
+      </c>
+      <c r="I16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>157</v>
+      </c>
+      <c r="B17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" t="s">
+        <v>158</v>
+      </c>
+      <c r="E17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" t="s">
+        <v>118</v>
+      </c>
+      <c r="G17" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" t="s">
+        <v>161</v>
+      </c>
+      <c r="E18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G18" t="s">
+        <v>162</v>
+      </c>
+      <c r="I18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
+      </c>
+      <c r="D19" t="s">
+        <v>164</v>
+      </c>
+      <c r="E19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" t="s">
+        <v>165</v>
+      </c>
+      <c r="I19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" t="s">
+        <v>167</v>
+      </c>
+      <c r="I20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C21" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" t="s">
+        <v>169</v>
+      </c>
+      <c r="E21" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" t="s">
+        <v>170</v>
+      </c>
+      <c r="I21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D22" t="s">
+        <v>172</v>
+      </c>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" t="s">
+        <v>118</v>
+      </c>
+      <c r="G22" t="s">
+        <v>173</v>
+      </c>
+      <c r="I22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" t="s">
+        <v>175</v>
+      </c>
+      <c r="I23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" t="s">
+        <v>164</v>
+      </c>
+      <c r="E24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G24" t="s">
+        <v>177</v>
+      </c>
+      <c r="I24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" t="s">
+        <v>179</v>
+      </c>
+      <c r="I25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" t="s">
+        <v>169</v>
+      </c>
+      <c r="E26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" t="s">
+        <v>181</v>
+      </c>
+      <c r="I26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B27" t="s">
+        <v>183</v>
+      </c>
+      <c r="C27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" t="s">
+        <v>183</v>
+      </c>
+      <c r="E27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" t="s">
+        <v>118</v>
+      </c>
+      <c r="G27" t="s">
+        <v>184</v>
+      </c>
+      <c r="I27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>185</v>
+      </c>
+      <c r="B28" t="s">
+        <v>186</v>
+      </c>
+      <c r="C28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G28" t="s">
+        <v>187</v>
+      </c>
+      <c r="I28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" t="s">
+        <v>189</v>
+      </c>
+      <c r="C29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" t="s">
+        <v>189</v>
+      </c>
+      <c r="E29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" t="s">
+        <v>190</v>
+      </c>
+      <c r="I29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>191</v>
+      </c>
+      <c r="B30" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" t="s">
+        <v>192</v>
+      </c>
+      <c r="I30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>193</v>
+      </c>
+      <c r="B31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" t="s">
+        <v>194</v>
+      </c>
+      <c r="I31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>195</v>
+      </c>
+      <c r="B32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D32" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" t="s">
+        <v>196</v>
+      </c>
+      <c r="I32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>197</v>
+      </c>
+      <c r="B33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" t="s">
+        <v>198</v>
+      </c>
+      <c r="I33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>199</v>
+      </c>
+      <c r="B34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" t="s">
+        <v>200</v>
+      </c>
+      <c r="I34" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>201</v>
+      </c>
+      <c r="B35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" t="s">
+        <v>141</v>
+      </c>
+      <c r="E35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" t="s">
+        <v>118</v>
+      </c>
+      <c r="G35" t="s">
+        <v>202</v>
+      </c>
+      <c r="I35" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>203</v>
+      </c>
+      <c r="B36" t="s">
+        <v>144</v>
+      </c>
+      <c r="C36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" t="s">
+        <v>204</v>
+      </c>
+      <c r="I36" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>205</v>
+      </c>
+      <c r="B37" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" t="s">
+        <v>206</v>
+      </c>
+      <c r="E37" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" t="s">
+        <v>207</v>
+      </c>
+      <c r="I37" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>208</v>
+      </c>
+      <c r="B38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38" t="s">
+        <v>209</v>
+      </c>
+      <c r="I38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>210</v>
+      </c>
+      <c r="B39" t="s">
+        <v>144</v>
+      </c>
+      <c r="C39" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" t="s">
+        <v>118</v>
+      </c>
+      <c r="G39" t="s">
+        <v>211</v>
+      </c>
+      <c r="I39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" t="s">
+        <v>213</v>
+      </c>
+      <c r="C40" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" t="s">
+        <v>213</v>
+      </c>
+      <c r="E40" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" t="s">
+        <v>214</v>
+      </c>
+      <c r="I40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>215</v>
+      </c>
+      <c r="B41" t="s">
+        <v>158</v>
+      </c>
+      <c r="C41" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" t="s">
+        <v>158</v>
+      </c>
+      <c r="E41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F41" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41" t="s">
+        <v>216</v>
+      </c>
+      <c r="I41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>215</v>
+      </c>
+      <c r="B42" t="s">
+        <v>217</v>
+      </c>
+      <c r="C42" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" t="s">
+        <v>217</v>
+      </c>
+      <c r="E42" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" t="s">
+        <v>118</v>
+      </c>
+      <c r="G42" t="s">
+        <v>218</v>
+      </c>
+      <c r="I42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>219</v>
+      </c>
+      <c r="B43" t="s">
+        <v>217</v>
+      </c>
+      <c r="C43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" t="s">
+        <v>217</v>
+      </c>
+      <c r="E43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" t="s">
+        <v>118</v>
+      </c>
+      <c r="G43" t="s">
+        <v>220</v>
+      </c>
+      <c r="I43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>221</v>
+      </c>
+      <c r="B44" t="s">
+        <v>217</v>
+      </c>
+      <c r="C44" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" t="s">
+        <v>217</v>
+      </c>
+      <c r="E44" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44" t="s">
+        <v>118</v>
+      </c>
+      <c r="G44" t="s">
+        <v>222</v>
+      </c>
+      <c r="I44" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>223</v>
+      </c>
+      <c r="B45" t="s">
+        <v>224</v>
+      </c>
+      <c r="C45" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" t="s">
+        <v>224</v>
+      </c>
+      <c r="E45" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" t="s">
+        <v>118</v>
+      </c>
+      <c r="G45" t="s">
+        <v>225</v>
+      </c>
+      <c r="I45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>226</v>
+      </c>
+      <c r="B46" t="s">
+        <v>164</v>
+      </c>
+      <c r="C46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" t="s">
+        <v>164</v>
+      </c>
+      <c r="E46" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" t="s">
+        <v>118</v>
+      </c>
+      <c r="G46" t="s">
+        <v>227</v>
+      </c>
+      <c r="I46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>228</v>
+      </c>
+      <c r="B47" t="s">
+        <v>164</v>
+      </c>
+      <c r="C47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" t="s">
+        <v>164</v>
+      </c>
+      <c r="E47" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" t="s">
+        <v>118</v>
+      </c>
+      <c r="G47" t="s">
+        <v>229</v>
+      </c>
+      <c r="I47" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>230</v>
+      </c>
+      <c r="B48" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" t="s">
+        <v>169</v>
+      </c>
+      <c r="E48" t="s">
+        <v>117</v>
+      </c>
+      <c r="F48" t="s">
+        <v>118</v>
+      </c>
+      <c r="G48" t="s">
+        <v>231</v>
+      </c>
+      <c r="I48" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>232</v>
+      </c>
+      <c r="B49" t="s">
+        <v>183</v>
+      </c>
+      <c r="C49" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" t="s">
+        <v>183</v>
+      </c>
+      <c r="E49" t="s">
+        <v>117</v>
+      </c>
+      <c r="F49" t="s">
+        <v>118</v>
+      </c>
+      <c r="G49" t="s">
+        <v>233</v>
+      </c>
+      <c r="I49" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>234</v>
+      </c>
+      <c r="B50" t="s">
+        <v>235</v>
+      </c>
+      <c r="C50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" t="s">
+        <v>235</v>
+      </c>
+      <c r="E50" t="s">
+        <v>117</v>
+      </c>
+      <c r="F50" t="s">
+        <v>118</v>
+      </c>
+      <c r="G50" t="s">
+        <v>236</v>
+      </c>
+      <c r="I50" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>237</v>
+      </c>
+      <c r="B51" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" t="s">
+        <v>169</v>
+      </c>
+      <c r="E51" t="s">
+        <v>117</v>
+      </c>
+      <c r="F51" t="s">
+        <v>118</v>
+      </c>
+      <c r="G51" t="s">
+        <v>238</v>
+      </c>
+      <c r="I51" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>239</v>
+      </c>
+      <c r="B52" t="s">
+        <v>183</v>
+      </c>
+      <c r="C52" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" t="s">
+        <v>183</v>
+      </c>
+      <c r="E52" t="s">
+        <v>117</v>
+      </c>
+      <c r="F52" t="s">
+        <v>118</v>
+      </c>
+      <c r="G52" t="s">
+        <v>240</v>
+      </c>
+      <c r="I52" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>241</v>
+      </c>
+      <c r="B53" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" t="s">
+        <v>116</v>
+      </c>
+      <c r="D53" t="s">
+        <v>134</v>
+      </c>
+      <c r="E53" t="s">
+        <v>117</v>
+      </c>
+      <c r="F53" t="s">
+        <v>118</v>
+      </c>
+      <c r="G53" t="s">
+        <v>242</v>
+      </c>
+      <c r="I53" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>243</v>
+      </c>
+      <c r="B54" t="s">
+        <v>244</v>
+      </c>
+      <c r="C54" t="s">
+        <v>116</v>
+      </c>
+      <c r="D54" t="s">
+        <v>244</v>
+      </c>
+      <c r="E54" t="s">
+        <v>117</v>
+      </c>
+      <c r="F54" t="s">
+        <v>118</v>
+      </c>
+      <c r="G54" t="s">
+        <v>245</v>
+      </c>
+      <c r="I54" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>246</v>
+      </c>
+      <c r="B55" t="s">
+        <v>247</v>
+      </c>
+      <c r="C55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" t="s">
+        <v>247</v>
+      </c>
+      <c r="E55" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" t="s">
+        <v>118</v>
+      </c>
+      <c r="G55" t="s">
+        <v>248</v>
+      </c>
+      <c r="I55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>249</v>
+      </c>
+      <c r="B56" t="s">
+        <v>213</v>
+      </c>
+      <c r="C56" t="s">
+        <v>116</v>
+      </c>
+      <c r="D56" t="s">
+        <v>213</v>
+      </c>
+      <c r="E56" t="s">
+        <v>117</v>
+      </c>
+      <c r="F56" t="s">
+        <v>118</v>
+      </c>
+      <c r="G56" t="s">
+        <v>250</v>
+      </c>
+      <c r="I56" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>251</v>
+      </c>
+      <c r="B57" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" t="s">
+        <v>252</v>
+      </c>
+      <c r="E57" t="s">
+        <v>117</v>
+      </c>
+      <c r="F57" t="s">
+        <v>118</v>
+      </c>
+      <c r="G57" t="s">
+        <v>253</v>
+      </c>
+      <c r="I57" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>254</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" t="s">
+        <v>116</v>
+      </c>
+      <c r="D58" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" t="s">
+        <v>117</v>
+      </c>
+      <c r="F58" t="s">
+        <v>118</v>
+      </c>
+      <c r="G58" t="s">
+        <v>255</v>
+      </c>
+      <c r="I58" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>256</v>
+      </c>
+      <c r="B59" t="s">
+        <v>257</v>
+      </c>
+      <c r="C59" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" t="s">
+        <v>257</v>
+      </c>
+      <c r="E59" t="s">
+        <v>117</v>
+      </c>
+      <c r="F59" t="s">
+        <v>118</v>
+      </c>
+      <c r="G59" t="s">
+        <v>258</v>
+      </c>
+      <c r="I59" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>259</v>
+      </c>
+      <c r="B60" t="s">
+        <v>260</v>
+      </c>
+      <c r="C60" t="s">
+        <v>116</v>
+      </c>
+      <c r="D60" t="s">
+        <v>260</v>
+      </c>
+      <c r="E60" t="s">
+        <v>117</v>
+      </c>
+      <c r="F60" t="s">
+        <v>118</v>
+      </c>
+      <c r="G60" t="s">
+        <v>261</v>
+      </c>
+      <c r="I60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>262</v>
+      </c>
+      <c r="B61" t="s">
+        <v>263</v>
+      </c>
+      <c r="C61" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" t="s">
+        <v>263</v>
+      </c>
+      <c r="E61" t="s">
+        <v>117</v>
+      </c>
+      <c r="F61" t="s">
+        <v>118</v>
+      </c>
+      <c r="G61" t="s">
+        <v>264</v>
+      </c>
+      <c r="I61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>265</v>
+      </c>
+      <c r="B62" t="s">
+        <v>266</v>
+      </c>
+      <c r="C62" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" t="s">
+        <v>266</v>
+      </c>
+      <c r="E62" t="s">
+        <v>117</v>
+      </c>
+      <c r="F62" t="s">
+        <v>118</v>
+      </c>
+      <c r="G62" t="s">
+        <v>267</v>
+      </c>
+      <c r="I62" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>268</v>
+      </c>
+      <c r="B63" t="s">
+        <v>269</v>
+      </c>
+      <c r="C63" t="s">
+        <v>116</v>
+      </c>
+      <c r="D63" t="s">
+        <v>269</v>
+      </c>
+      <c r="E63" t="s">
+        <v>117</v>
+      </c>
+      <c r="F63" t="s">
+        <v>118</v>
+      </c>
+      <c r="G63" t="s">
+        <v>270</v>
+      </c>
+      <c r="I63" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>271</v>
+      </c>
+      <c r="B64" t="s">
+        <v>272</v>
+      </c>
+      <c r="C64" t="s">
+        <v>116</v>
+      </c>
+      <c r="D64" t="s">
+        <v>272</v>
+      </c>
+      <c r="E64" t="s">
+        <v>117</v>
+      </c>
+      <c r="F64" t="s">
+        <v>118</v>
+      </c>
+      <c r="G64" t="s">
+        <v>273</v>
+      </c>
+      <c r="I64" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>274</v>
+      </c>
+      <c r="B65" t="s">
+        <v>275</v>
+      </c>
+      <c r="C65" t="s">
+        <v>116</v>
+      </c>
+      <c r="D65" t="s">
+        <v>275</v>
+      </c>
+      <c r="E65" t="s">
+        <v>117</v>
+      </c>
+      <c r="F65" t="s">
+        <v>118</v>
+      </c>
+      <c r="G65" t="s">
+        <v>276</v>
+      </c>
+      <c r="I65" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>277</v>
+      </c>
+      <c r="B66" t="s">
+        <v>278</v>
+      </c>
+      <c r="C66" t="s">
+        <v>116</v>
+      </c>
+      <c r="D66" t="s">
+        <v>278</v>
+      </c>
+      <c r="E66" t="s">
+        <v>117</v>
+      </c>
+      <c r="F66" t="s">
+        <v>118</v>
+      </c>
+      <c r="G66" t="s">
+        <v>279</v>
+      </c>
+      <c r="I66" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>280</v>
+      </c>
+      <c r="B67" t="s">
+        <v>281</v>
+      </c>
+      <c r="C67" t="s">
+        <v>116</v>
+      </c>
+      <c r="D67" t="s">
+        <v>281</v>
+      </c>
+      <c r="E67" t="s">
+        <v>117</v>
+      </c>
+      <c r="F67" t="s">
+        <v>118</v>
+      </c>
+      <c r="G67" t="s">
+        <v>282</v>
+      </c>
+      <c r="I67" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>283</v>
+      </c>
+      <c r="B68" t="s">
+        <v>284</v>
+      </c>
+      <c r="C68" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68" t="s">
+        <v>284</v>
+      </c>
+      <c r="E68" t="s">
+        <v>117</v>
+      </c>
+      <c r="F68" t="s">
+        <v>118</v>
+      </c>
+      <c r="G68" t="s">
+        <v>285</v>
+      </c>
+      <c r="I68" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>286</v>
+      </c>
+      <c r="B69" t="s">
+        <v>287</v>
+      </c>
+      <c r="C69" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69" t="s">
+        <v>287</v>
+      </c>
+      <c r="E69" t="s">
+        <v>117</v>
+      </c>
+      <c r="F69" t="s">
+        <v>118</v>
+      </c>
+      <c r="G69" t="s">
+        <v>288</v>
+      </c>
+      <c r="I69" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>289</v>
+      </c>
+      <c r="B70" t="s">
+        <v>290</v>
+      </c>
+      <c r="C70" t="s">
+        <v>116</v>
+      </c>
+      <c r="D70" t="s">
+        <v>290</v>
+      </c>
+      <c r="E70" t="s">
+        <v>117</v>
+      </c>
+      <c r="F70" t="s">
+        <v>118</v>
+      </c>
+      <c r="G70" t="s">
+        <v>291</v>
+      </c>
+      <c r="I70" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>292</v>
+      </c>
+      <c r="B71" t="s">
+        <v>252</v>
+      </c>
+      <c r="C71" t="s">
+        <v>116</v>
+      </c>
+      <c r="D71" t="s">
+        <v>252</v>
+      </c>
+      <c r="E71" t="s">
+        <v>117</v>
+      </c>
+      <c r="F71" t="s">
+        <v>118</v>
+      </c>
+      <c r="G71" t="s">
+        <v>293</v>
+      </c>
+      <c r="I71" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>294</v>
+      </c>
+      <c r="B72" t="s">
+        <v>295</v>
+      </c>
+      <c r="C72" t="s">
+        <v>116</v>
+      </c>
+      <c r="D72" t="s">
+        <v>295</v>
+      </c>
+      <c r="E72" t="s">
+        <v>117</v>
+      </c>
+      <c r="F72" t="s">
+        <v>118</v>
+      </c>
+      <c r="G72" t="s">
+        <v>296</v>
+      </c>
+      <c r="I72" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>297</v>
+      </c>
+      <c r="B73" t="s">
+        <v>298</v>
+      </c>
+      <c r="C73" t="s">
+        <v>116</v>
+      </c>
+      <c r="D73" t="s">
+        <v>298</v>
+      </c>
+      <c r="E73" t="s">
+        <v>117</v>
+      </c>
+      <c r="F73" t="s">
+        <v>118</v>
+      </c>
+      <c r="G73" t="s">
+        <v>299</v>
+      </c>
+      <c r="I73" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>300</v>
+      </c>
+      <c r="B74" t="s">
+        <v>301</v>
+      </c>
+      <c r="C74" t="s">
+        <v>116</v>
+      </c>
+      <c r="D74" t="s">
+        <v>301</v>
+      </c>
+      <c r="E74" t="s">
+        <v>117</v>
+      </c>
+      <c r="F74" t="s">
+        <v>118</v>
+      </c>
+      <c r="G74" t="s">
+        <v>302</v>
+      </c>
+      <c r="I74" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>303</v>
+      </c>
+      <c r="B75" t="s">
+        <v>304</v>
+      </c>
+      <c r="C75" t="s">
+        <v>116</v>
+      </c>
+      <c r="D75" t="s">
+        <v>304</v>
+      </c>
+      <c r="E75" t="s">
+        <v>117</v>
+      </c>
+      <c r="F75" t="s">
+        <v>118</v>
+      </c>
+      <c r="G75" t="s">
+        <v>305</v>
+      </c>
+      <c r="I75" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>306</v>
+      </c>
+      <c r="B76" t="s">
+        <v>307</v>
+      </c>
+      <c r="C76" t="s">
+        <v>116</v>
+      </c>
+      <c r="D76" t="s">
+        <v>307</v>
+      </c>
+      <c r="E76" t="s">
+        <v>117</v>
+      </c>
+      <c r="F76" t="s">
+        <v>118</v>
+      </c>
+      <c r="G76" t="s">
+        <v>308</v>
+      </c>
+      <c r="I76" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>309</v>
+      </c>
+      <c r="B77" t="s">
+        <v>310</v>
+      </c>
+      <c r="C77" t="s">
+        <v>116</v>
+      </c>
+      <c r="D77" t="s">
+        <v>310</v>
+      </c>
+      <c r="E77" t="s">
+        <v>117</v>
+      </c>
+      <c r="F77" t="s">
+        <v>118</v>
+      </c>
+      <c r="G77" t="s">
+        <v>311</v>
+      </c>
+      <c r="I77" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>312</v>
+      </c>
+      <c r="B78" t="s">
+        <v>301</v>
+      </c>
+      <c r="C78" t="s">
+        <v>116</v>
+      </c>
+      <c r="D78" t="s">
+        <v>301</v>
+      </c>
+      <c r="E78" t="s">
+        <v>117</v>
+      </c>
+      <c r="F78" t="s">
+        <v>118</v>
+      </c>
+      <c r="G78" t="s">
+        <v>313</v>
+      </c>
+      <c r="I78" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>314</v>
+      </c>
+      <c r="B79" t="s">
+        <v>315</v>
+      </c>
+      <c r="C79" t="s">
+        <v>116</v>
+      </c>
+      <c r="D79" t="s">
+        <v>315</v>
+      </c>
+      <c r="E79" t="s">
+        <v>117</v>
+      </c>
+      <c r="F79" t="s">
+        <v>118</v>
+      </c>
+      <c r="G79" t="s">
+        <v>316</v>
+      </c>
+      <c r="I79" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>317</v>
+      </c>
+      <c r="B80" t="s">
+        <v>318</v>
+      </c>
+      <c r="C80" t="s">
+        <v>116</v>
+      </c>
+      <c r="D80" t="s">
+        <v>318</v>
+      </c>
+      <c r="E80" t="s">
+        <v>117</v>
+      </c>
+      <c r="F80" t="s">
+        <v>118</v>
+      </c>
+      <c r="G80" t="s">
+        <v>319</v>
+      </c>
+      <c r="I80" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>320</v>
+      </c>
+      <c r="B81" t="s">
+        <v>122</v>
+      </c>
+      <c r="C81" t="s">
+        <v>116</v>
+      </c>
+      <c r="D81" t="s">
+        <v>122</v>
+      </c>
+      <c r="E81" t="s">
+        <v>117</v>
+      </c>
+      <c r="F81" t="s">
+        <v>118</v>
+      </c>
+      <c r="G81" t="s">
+        <v>321</v>
+      </c>
+      <c r="I81" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>322</v>
+      </c>
+      <c r="B82" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" t="s">
+        <v>116</v>
+      </c>
+      <c r="D82" t="s">
+        <v>125</v>
+      </c>
+      <c r="E82" t="s">
+        <v>117</v>
+      </c>
+      <c r="F82" t="s">
+        <v>118</v>
+      </c>
+      <c r="G82" t="s">
+        <v>323</v>
+      </c>
+      <c r="I82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>324</v>
+      </c>
+      <c r="B83" t="s">
+        <v>325</v>
+      </c>
+      <c r="C83" t="s">
+        <v>116</v>
+      </c>
+      <c r="D83" t="s">
+        <v>325</v>
+      </c>
+      <c r="E83" t="s">
+        <v>117</v>
+      </c>
+      <c r="F83" t="s">
+        <v>118</v>
+      </c>
+      <c r="G83" t="s">
+        <v>326</v>
+      </c>
+      <c r="I83" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>327</v>
+      </c>
+      <c r="B84" t="s">
+        <v>252</v>
+      </c>
+      <c r="C84" t="s">
+        <v>116</v>
+      </c>
+      <c r="D84" t="s">
+        <v>252</v>
+      </c>
+      <c r="E84" t="s">
+        <v>117</v>
+      </c>
+      <c r="F84" t="s">
+        <v>118</v>
+      </c>
+      <c r="G84" t="s">
+        <v>328</v>
+      </c>
+      <c r="I84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>329</v>
+      </c>
+      <c r="B85" t="s">
+        <v>330</v>
+      </c>
+      <c r="C85" t="s">
+        <v>116</v>
+      </c>
+      <c r="D85" t="s">
+        <v>330</v>
+      </c>
+      <c r="E85" t="s">
+        <v>117</v>
+      </c>
+      <c r="F85" t="s">
+        <v>118</v>
+      </c>
+      <c r="G85" t="s">
+        <v>331</v>
+      </c>
+      <c r="I85" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>332</v>
+      </c>
+      <c r="B86" t="s">
+        <v>333</v>
+      </c>
+      <c r="C86" t="s">
+        <v>116</v>
+      </c>
+      <c r="D86" t="s">
+        <v>333</v>
+      </c>
+      <c r="E86" t="s">
+        <v>117</v>
+      </c>
+      <c r="F86" t="s">
+        <v>118</v>
+      </c>
+      <c r="G86" t="s">
+        <v>334</v>
+      </c>
+      <c r="I86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>335</v>
+      </c>
+      <c r="B87" t="s">
+        <v>310</v>
+      </c>
+      <c r="C87" t="s">
+        <v>116</v>
+      </c>
+      <c r="D87" t="s">
+        <v>310</v>
+      </c>
+      <c r="E87" t="s">
+        <v>117</v>
+      </c>
+      <c r="F87" t="s">
+        <v>118</v>
+      </c>
+      <c r="G87" t="s">
+        <v>336</v>
+      </c>
+      <c r="I87" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>337</v>
+      </c>
+      <c r="B88" t="s">
+        <v>338</v>
+      </c>
+      <c r="C88" t="s">
+        <v>116</v>
+      </c>
+      <c r="D88" t="s">
+        <v>338</v>
+      </c>
+      <c r="E88" t="s">
+        <v>117</v>
+      </c>
+      <c r="F88" t="s">
+        <v>118</v>
+      </c>
+      <c r="G88" t="s">
+        <v>339</v>
+      </c>
+      <c r="I88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>340</v>
+      </c>
+      <c r="B89" t="s">
+        <v>244</v>
+      </c>
+      <c r="C89" t="s">
+        <v>116</v>
+      </c>
+      <c r="D89" t="s">
+        <v>244</v>
+      </c>
+      <c r="E89" t="s">
+        <v>117</v>
+      </c>
+      <c r="F89" t="s">
+        <v>118</v>
+      </c>
+      <c r="G89" t="s">
+        <v>119</v>
+      </c>
+      <c r="I89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>341</v>
+      </c>
+      <c r="B90" t="s">
+        <v>244</v>
+      </c>
+      <c r="C90" t="s">
+        <v>116</v>
+      </c>
+      <c r="D90" t="s">
+        <v>244</v>
+      </c>
+      <c r="E90" t="s">
+        <v>117</v>
+      </c>
+      <c r="F90" t="s">
+        <v>118</v>
+      </c>
+      <c r="G90" t="s">
+        <v>123</v>
+      </c>
+      <c r="I90" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>342</v>
+      </c>
+      <c r="B91" t="s">
+        <v>213</v>
+      </c>
+      <c r="C91" t="s">
+        <v>116</v>
+      </c>
+      <c r="D91" t="s">
+        <v>213</v>
+      </c>
+      <c r="E91" t="s">
+        <v>117</v>
+      </c>
+      <c r="F91" t="s">
+        <v>118</v>
+      </c>
+      <c r="G91" t="s">
+        <v>126</v>
+      </c>
+      <c r="I91" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>343</v>
+      </c>
+      <c r="B92" t="s">
+        <v>252</v>
+      </c>
+      <c r="C92" t="s">
+        <v>116</v>
+      </c>
+      <c r="D92" t="s">
+        <v>252</v>
+      </c>
+      <c r="E92" t="s">
+        <v>117</v>
+      </c>
+      <c r="F92" t="s">
+        <v>118</v>
+      </c>
+      <c r="G92" t="s">
+        <v>129</v>
+      </c>
+      <c r="I92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>344</v>
+      </c>
+      <c r="B93" t="s">
+        <v>345</v>
+      </c>
+      <c r="C93" t="s">
+        <v>116</v>
+      </c>
+      <c r="D93" t="s">
+        <v>345</v>
+      </c>
+      <c r="E93" t="s">
+        <v>117</v>
+      </c>
+      <c r="F93" t="s">
+        <v>118</v>
+      </c>
+      <c r="G93" t="s">
+        <v>132</v>
+      </c>
+      <c r="I93" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>346</v>
+      </c>
+      <c r="B94" t="s">
+        <v>345</v>
+      </c>
+      <c r="C94" t="s">
+        <v>116</v>
+      </c>
+      <c r="D94" t="s">
+        <v>345</v>
+      </c>
+      <c r="E94" t="s">
+        <v>117</v>
+      </c>
+      <c r="F94" t="s">
+        <v>118</v>
+      </c>
+      <c r="G94" t="s">
+        <v>135</v>
+      </c>
+      <c r="I94" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>347</v>
+      </c>
+      <c r="B95" t="s">
+        <v>213</v>
+      </c>
+      <c r="C95" t="s">
+        <v>116</v>
+      </c>
+      <c r="D95" t="s">
+        <v>213</v>
+      </c>
+      <c r="E95" t="s">
+        <v>117</v>
+      </c>
+      <c r="F95" t="s">
+        <v>118</v>
+      </c>
+      <c r="G95" t="s">
+        <v>137</v>
+      </c>
+      <c r="I95" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>348</v>
+      </c>
+      <c r="B96" t="s">
+        <v>141</v>
+      </c>
+      <c r="C96" t="s">
+        <v>116</v>
+      </c>
+      <c r="D96" t="s">
+        <v>141</v>
+      </c>
+      <c r="E96" t="s">
+        <v>117</v>
+      </c>
+      <c r="F96" t="s">
+        <v>118</v>
+      </c>
+      <c r="G96" t="s">
+        <v>139</v>
+      </c>
+      <c r="I96" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>349</v>
+      </c>
+      <c r="B97" t="s">
+        <v>144</v>
+      </c>
+      <c r="C97" t="s">
+        <v>116</v>
+      </c>
+      <c r="D97" t="s">
+        <v>144</v>
+      </c>
+      <c r="E97" t="s">
+        <v>117</v>
+      </c>
+      <c r="F97" t="s">
+        <v>118</v>
+      </c>
+      <c r="G97" t="s">
+        <v>142</v>
+      </c>
+      <c r="I97" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>350</v>
+      </c>
+      <c r="B98" t="s">
+        <v>351</v>
+      </c>
+      <c r="C98" t="s">
+        <v>116</v>
+      </c>
+      <c r="D98" t="s">
+        <v>351</v>
+      </c>
+      <c r="E98" t="s">
+        <v>117</v>
+      </c>
+      <c r="F98" t="s">
+        <v>118</v>
+      </c>
+      <c r="G98" t="s">
+        <v>145</v>
+      </c>
+      <c r="I98" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>352</v>
+      </c>
+      <c r="B99" t="s">
+        <v>213</v>
+      </c>
+      <c r="C99" t="s">
+        <v>116</v>
+      </c>
+      <c r="D99" t="s">
+        <v>213</v>
+      </c>
+      <c r="E99" t="s">
+        <v>117</v>
+      </c>
+      <c r="F99" t="s">
+        <v>118</v>
+      </c>
+      <c r="G99" t="s">
+        <v>147</v>
+      </c>
+      <c r="I99" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>353</v>
+      </c>
+      <c r="B100" t="s">
+        <v>354</v>
+      </c>
+      <c r="C100" t="s">
+        <v>116</v>
+      </c>
+      <c r="D100" t="s">
+        <v>354</v>
+      </c>
+      <c r="E100" t="s">
+        <v>117</v>
+      </c>
+      <c r="F100" t="s">
+        <v>118</v>
+      </c>
+      <c r="G100" t="s">
+        <v>149</v>
+      </c>
+      <c r="I100" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>355</v>
+      </c>
+      <c r="B101" t="s">
+        <v>356</v>
+      </c>
+      <c r="C101" t="s">
+        <v>116</v>
+      </c>
+      <c r="D101" t="s">
+        <v>356</v>
+      </c>
+      <c r="E101" t="s">
+        <v>117</v>
+      </c>
+      <c r="F101" t="s">
+        <v>118</v>
+      </c>
+      <c r="G101" t="s">
+        <v>151</v>
+      </c>
+      <c r="I101" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>357</v>
+      </c>
+      <c r="B102" t="s">
+        <v>351</v>
+      </c>
+      <c r="C102" t="s">
+        <v>116</v>
+      </c>
+      <c r="D102" t="s">
+        <v>351</v>
+      </c>
+      <c r="E102" t="s">
+        <v>117</v>
+      </c>
+      <c r="F102" t="s">
+        <v>118</v>
+      </c>
+      <c r="G102" t="s">
+        <v>153</v>
+      </c>
+      <c r="I102" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>358</v>
+      </c>
+      <c r="B103" t="s">
+        <v>359</v>
+      </c>
+      <c r="C103" t="s">
+        <v>116</v>
+      </c>
+      <c r="D103" t="s">
+        <v>359</v>
+      </c>
+      <c r="E103" t="s">
+        <v>117</v>
+      </c>
+      <c r="F103" t="s">
+        <v>118</v>
+      </c>
+      <c r="G103" t="s">
+        <v>156</v>
+      </c>
+      <c r="I103" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>360</v>
+      </c>
+      <c r="B104" t="s">
+        <v>354</v>
+      </c>
+      <c r="C104" t="s">
+        <v>116</v>
+      </c>
+      <c r="D104" t="s">
+        <v>354</v>
+      </c>
+      <c r="E104" t="s">
+        <v>117</v>
+      </c>
+      <c r="F104" t="s">
+        <v>118</v>
+      </c>
+      <c r="G104" t="s">
+        <v>159</v>
+      </c>
+      <c r="I104" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>361</v>
+      </c>
+      <c r="B105" t="s">
+        <v>354</v>
+      </c>
+      <c r="C105" t="s">
+        <v>116</v>
+      </c>
+      <c r="D105" t="s">
+        <v>354</v>
+      </c>
+      <c r="E105" t="s">
+        <v>117</v>
+      </c>
+      <c r="F105" t="s">
+        <v>118</v>
+      </c>
+      <c r="G105" t="s">
+        <v>162</v>
+      </c>
+      <c r="I105" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>362</v>
+      </c>
+      <c r="B106" t="s">
+        <v>310</v>
+      </c>
+      <c r="C106" t="s">
+        <v>116</v>
+      </c>
+      <c r="D106" t="s">
+        <v>310</v>
+      </c>
+      <c r="E106" t="s">
+        <v>117</v>
+      </c>
+      <c r="F106" t="s">
+        <v>118</v>
+      </c>
+      <c r="G106" t="s">
+        <v>165</v>
+      </c>
+      <c r="I106" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>363</v>
+      </c>
+      <c r="B107" t="s">
+        <v>235</v>
+      </c>
+      <c r="C107" t="s">
+        <v>116</v>
+      </c>
+      <c r="D107" t="s">
+        <v>235</v>
+      </c>
+      <c r="E107" t="s">
+        <v>117</v>
+      </c>
+      <c r="F107" t="s">
+        <v>118</v>
+      </c>
+      <c r="G107" t="s">
+        <v>167</v>
+      </c>
+      <c r="I107" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>364</v>
+      </c>
+      <c r="B108" t="s">
+        <v>310</v>
+      </c>
+      <c r="C108" t="s">
+        <v>116</v>
+      </c>
+      <c r="D108" t="s">
+        <v>310</v>
+      </c>
+      <c r="E108" t="s">
+        <v>117</v>
+      </c>
+      <c r="F108" t="s">
+        <v>118</v>
+      </c>
+      <c r="G108" t="s">
+        <v>170</v>
+      </c>
+      <c r="I108" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>365</v>
+      </c>
+      <c r="B109" t="s">
+        <v>310</v>
+      </c>
+      <c r="C109" t="s">
+        <v>116</v>
+      </c>
+      <c r="D109" t="s">
+        <v>310</v>
+      </c>
+      <c r="E109" t="s">
+        <v>117</v>
+      </c>
+      <c r="F109" t="s">
+        <v>118</v>
+      </c>
+      <c r="G109" t="s">
+        <v>173</v>
+      </c>
+      <c r="I109" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>366</v>
+      </c>
+      <c r="B110" t="s">
+        <v>354</v>
+      </c>
+      <c r="C110" t="s">
+        <v>116</v>
+      </c>
+      <c r="D110" t="s">
+        <v>354</v>
+      </c>
+      <c r="E110" t="s">
+        <v>117</v>
+      </c>
+      <c r="F110" t="s">
+        <v>118</v>
+      </c>
+      <c r="G110" t="s">
+        <v>175</v>
+      </c>
+      <c r="I110" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>367</v>
+      </c>
+      <c r="B111" t="s">
+        <v>368</v>
+      </c>
+      <c r="C111" t="s">
+        <v>116</v>
+      </c>
+      <c r="D111" t="s">
+        <v>368</v>
+      </c>
+      <c r="E111" t="s">
+        <v>117</v>
+      </c>
+      <c r="F111" t="s">
+        <v>118</v>
+      </c>
+      <c r="G111" t="s">
+        <v>177</v>
+      </c>
+      <c r="I111" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>369</v>
+      </c>
+      <c r="B112" t="s">
+        <v>235</v>
+      </c>
+      <c r="C112" t="s">
+        <v>116</v>
+      </c>
+      <c r="D112" t="s">
+        <v>235</v>
+      </c>
+      <c r="E112" t="s">
+        <v>117</v>
+      </c>
+      <c r="F112" t="s">
+        <v>118</v>
+      </c>
+      <c r="G112" t="s">
+        <v>179</v>
+      </c>
+      <c r="I112" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>370</v>
+      </c>
+      <c r="B113" t="s">
+        <v>310</v>
+      </c>
+      <c r="C113" t="s">
+        <v>116</v>
+      </c>
+      <c r="D113" t="s">
+        <v>310</v>
+      </c>
+      <c r="E113" t="s">
+        <v>117</v>
+      </c>
+      <c r="F113" t="s">
+        <v>118</v>
+      </c>
+      <c r="G113" t="s">
+        <v>181</v>
+      </c>
+      <c r="I113" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>371</v>
+      </c>
+      <c r="B114" t="s">
+        <v>368</v>
+      </c>
+      <c r="C114" t="s">
+        <v>116</v>
+      </c>
+      <c r="D114" t="s">
+        <v>368</v>
+      </c>
+      <c r="E114" t="s">
+        <v>117</v>
+      </c>
+      <c r="F114" t="s">
+        <v>118</v>
+      </c>
+      <c r="G114" t="s">
+        <v>184</v>
+      </c>
+      <c r="I114" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>372</v>
+      </c>
+      <c r="B115" t="s">
+        <v>368</v>
+      </c>
+      <c r="C115" t="s">
+        <v>116</v>
+      </c>
+      <c r="D115" t="s">
+        <v>368</v>
+      </c>
+      <c r="E115" t="s">
+        <v>117</v>
+      </c>
+      <c r="F115" t="s">
+        <v>118</v>
+      </c>
+      <c r="G115" t="s">
+        <v>187</v>
+      </c>
+      <c r="I115" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>373</v>
+      </c>
+      <c r="B116" t="s">
+        <v>345</v>
+      </c>
+      <c r="C116" t="s">
+        <v>116</v>
+      </c>
+      <c r="D116" t="s">
+        <v>345</v>
+      </c>
+      <c r="E116" t="s">
+        <v>117</v>
+      </c>
+      <c r="F116" t="s">
+        <v>118</v>
+      </c>
+      <c r="G116" t="s">
+        <v>190</v>
+      </c>
+      <c r="I116" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>374</v>
+      </c>
+      <c r="B117" t="s">
+        <v>235</v>
+      </c>
+      <c r="C117" t="s">
+        <v>116</v>
+      </c>
+      <c r="D117" t="s">
+        <v>235</v>
+      </c>
+      <c r="E117" t="s">
+        <v>117</v>
+      </c>
+      <c r="F117" t="s">
+        <v>118</v>
+      </c>
+      <c r="G117" t="s">
+        <v>192</v>
+      </c>
+      <c r="I117" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>375</v>
+      </c>
+      <c r="B118" t="s">
+        <v>345</v>
+      </c>
+      <c r="C118" t="s">
+        <v>116</v>
+      </c>
+      <c r="D118" t="s">
+        <v>345</v>
+      </c>
+      <c r="E118" t="s">
+        <v>117</v>
+      </c>
+      <c r="F118" t="s">
+        <v>118</v>
+      </c>
+      <c r="G118" t="s">
+        <v>194</v>
+      </c>
+      <c r="I118" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>376</v>
+      </c>
+      <c r="B119" t="s">
+        <v>345</v>
+      </c>
+      <c r="C119" t="s">
+        <v>116</v>
+      </c>
+      <c r="D119" t="s">
+        <v>345</v>
+      </c>
+      <c r="E119" t="s">
+        <v>117</v>
+      </c>
+      <c r="F119" t="s">
+        <v>118</v>
+      </c>
+      <c r="G119" t="s">
+        <v>196</v>
+      </c>
+      <c r="I119" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>377</v>
+      </c>
+      <c r="B120" t="s">
+        <v>213</v>
+      </c>
+      <c r="C120" t="s">
+        <v>116</v>
+      </c>
+      <c r="D120" t="s">
+        <v>213</v>
+      </c>
+      <c r="E120" t="s">
+        <v>117</v>
+      </c>
+      <c r="F120" t="s">
+        <v>118</v>
+      </c>
+      <c r="G120" t="s">
+        <v>198</v>
+      </c>
+      <c r="I120" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>378</v>
+      </c>
+      <c r="B121" t="s">
+        <v>379</v>
+      </c>
+      <c r="C121" t="s">
+        <v>116</v>
+      </c>
+      <c r="D121" t="s">
+        <v>379</v>
+      </c>
+      <c r="E121" t="s">
+        <v>117</v>
+      </c>
+      <c r="F121" t="s">
+        <v>118</v>
+      </c>
+      <c r="G121" t="s">
+        <v>200</v>
+      </c>
+      <c r="I121" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>380</v>
+      </c>
+      <c r="B122" t="s">
+        <v>381</v>
+      </c>
+      <c r="C122" t="s">
+        <v>116</v>
+      </c>
+      <c r="D122" t="s">
+        <v>381</v>
+      </c>
+      <c r="E122" t="s">
+        <v>117</v>
+      </c>
+      <c r="F122" t="s">
+        <v>118</v>
+      </c>
+      <c r="G122" t="s">
+        <v>202</v>
+      </c>
+      <c r="I122" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>382</v>
+      </c>
+      <c r="B123" t="s">
+        <v>351</v>
+      </c>
+      <c r="C123" t="s">
+        <v>116</v>
+      </c>
+      <c r="D123" t="s">
+        <v>351</v>
+      </c>
+      <c r="E123" t="s">
+        <v>117</v>
+      </c>
+      <c r="F123" t="s">
+        <v>118</v>
+      </c>
+      <c r="G123" t="s">
+        <v>204</v>
+      </c>
+      <c r="I123" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>383</v>
+      </c>
+      <c r="B124" t="s">
+        <v>213</v>
+      </c>
+      <c r="C124" t="s">
+        <v>116</v>
+      </c>
+      <c r="D124" t="s">
+        <v>213</v>
+      </c>
+      <c r="E124" t="s">
+        <v>117</v>
+      </c>
+      <c r="F124" t="s">
+        <v>118</v>
+      </c>
+      <c r="G124" t="s">
+        <v>207</v>
+      </c>
+      <c r="I124" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>384</v>
+      </c>
+      <c r="B125" t="s">
+        <v>354</v>
+      </c>
+      <c r="C125" t="s">
+        <v>116</v>
+      </c>
+      <c r="D125" t="s">
+        <v>354</v>
+      </c>
+      <c r="E125" t="s">
+        <v>117</v>
+      </c>
+      <c r="F125" t="s">
+        <v>118</v>
+      </c>
+      <c r="G125" t="s">
+        <v>209</v>
+      </c>
+      <c r="I125" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>385</v>
+      </c>
+      <c r="B126" t="s">
+        <v>213</v>
+      </c>
+      <c r="C126" t="s">
+        <v>116</v>
+      </c>
+      <c r="D126" t="s">
+        <v>213</v>
+      </c>
+      <c r="E126" t="s">
+        <v>117</v>
+      </c>
+      <c r="F126" t="s">
+        <v>118</v>
+      </c>
+      <c r="G126" t="s">
+        <v>211</v>
+      </c>
+      <c r="I126" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>386</v>
+      </c>
+      <c r="B127" t="s">
+        <v>359</v>
+      </c>
+      <c r="C127" t="s">
+        <v>116</v>
+      </c>
+      <c r="D127" t="s">
+        <v>359</v>
+      </c>
+      <c r="E127" t="s">
+        <v>117</v>
+      </c>
+      <c r="F127" t="s">
+        <v>118</v>
+      </c>
+      <c r="G127" t="s">
+        <v>214</v>
+      </c>
+      <c r="I127" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>387</v>
+      </c>
+      <c r="B128" t="s">
+        <v>388</v>
+      </c>
+      <c r="C128" t="s">
+        <v>116</v>
+      </c>
+      <c r="D128" t="s">
+        <v>388</v>
+      </c>
+      <c r="E128" t="s">
+        <v>117</v>
+      </c>
+      <c r="F128" t="s">
+        <v>118</v>
+      </c>
+      <c r="G128" t="s">
+        <v>216</v>
+      </c>
+      <c r="I128" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>387</v>
+      </c>
+      <c r="B129" t="s">
+        <v>354</v>
+      </c>
+      <c r="C129" t="s">
+        <v>116</v>
+      </c>
+      <c r="D129" t="s">
+        <v>354</v>
+      </c>
+      <c r="E129" t="s">
+        <v>117</v>
+      </c>
+      <c r="F129" t="s">
+        <v>118</v>
+      </c>
+      <c r="G129" t="s">
+        <v>218</v>
+      </c>
+      <c r="I129" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>389</v>
+      </c>
+      <c r="B130" t="s">
+        <v>390</v>
+      </c>
+      <c r="C130" t="s">
+        <v>116</v>
+      </c>
+      <c r="D130" t="s">
+        <v>390</v>
+      </c>
+      <c r="E130" t="s">
+        <v>117</v>
+      </c>
+      <c r="F130" t="s">
+        <v>118</v>
+      </c>
+      <c r="G130" t="s">
+        <v>220</v>
+      </c>
+      <c r="I130" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>391</v>
+      </c>
+      <c r="B131" t="s">
+        <v>354</v>
+      </c>
+      <c r="C131" t="s">
+        <v>116</v>
+      </c>
+      <c r="D131" t="s">
+        <v>354</v>
+      </c>
+      <c r="E131" t="s">
+        <v>117</v>
+      </c>
+      <c r="F131" t="s">
+        <v>118</v>
+      </c>
+      <c r="G131" t="s">
+        <v>222</v>
+      </c>
+      <c r="I131" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>392</v>
+      </c>
+      <c r="B132" t="s">
+        <v>235</v>
+      </c>
+      <c r="C132" t="s">
+        <v>116</v>
+      </c>
+      <c r="D132" t="s">
+        <v>235</v>
+      </c>
+      <c r="E132" t="s">
+        <v>117</v>
+      </c>
+      <c r="F132" t="s">
+        <v>118</v>
+      </c>
+      <c r="G132" t="s">
+        <v>225</v>
+      </c>
+      <c r="I132" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>393</v>
+      </c>
+      <c r="B133" t="s">
+        <v>368</v>
+      </c>
+      <c r="C133" t="s">
+        <v>116</v>
+      </c>
+      <c r="D133" t="s">
+        <v>368</v>
+      </c>
+      <c r="E133" t="s">
+        <v>117</v>
+      </c>
+      <c r="F133" t="s">
+        <v>118</v>
+      </c>
+      <c r="G133" t="s">
+        <v>227</v>
+      </c>
+      <c r="I133" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>394</v>
+      </c>
+      <c r="B134" t="s">
+        <v>235</v>
+      </c>
+      <c r="C134" t="s">
+        <v>116</v>
+      </c>
+      <c r="D134" t="s">
+        <v>235</v>
+      </c>
+      <c r="E134" t="s">
+        <v>117</v>
+      </c>
+      <c r="F134" t="s">
+        <v>118</v>
+      </c>
+      <c r="G134" t="s">
+        <v>229</v>
+      </c>
+      <c r="I134" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>395</v>
+      </c>
+      <c r="B135" t="s">
+        <v>310</v>
+      </c>
+      <c r="C135" t="s">
+        <v>116</v>
+      </c>
+      <c r="D135" t="s">
+        <v>310</v>
+      </c>
+      <c r="E135" t="s">
+        <v>117</v>
+      </c>
+      <c r="F135" t="s">
+        <v>118</v>
+      </c>
+      <c r="G135" t="s">
+        <v>231</v>
+      </c>
+      <c r="I135" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>396</v>
+      </c>
+      <c r="B136" t="s">
+        <v>397</v>
+      </c>
+      <c r="C136" t="s">
+        <v>116</v>
+      </c>
+      <c r="D136" t="s">
+        <v>397</v>
+      </c>
+      <c r="E136" t="s">
+        <v>117</v>
+      </c>
+      <c r="F136" t="s">
+        <v>118</v>
+      </c>
+      <c r="G136" t="s">
+        <v>233</v>
+      </c>
+      <c r="I136" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>398</v>
+      </c>
+      <c r="B137" t="s">
+        <v>345</v>
+      </c>
+      <c r="C137" t="s">
+        <v>116</v>
+      </c>
+      <c r="D137" t="s">
+        <v>345</v>
+      </c>
+      <c r="E137" t="s">
+        <v>117</v>
+      </c>
+      <c r="F137" t="s">
+        <v>118</v>
+      </c>
+      <c r="G137" t="s">
+        <v>236</v>
+      </c>
+      <c r="I137" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>399</v>
+      </c>
+      <c r="B138" t="s">
+        <v>310</v>
+      </c>
+      <c r="C138" t="s">
+        <v>116</v>
+      </c>
+      <c r="D138" t="s">
+        <v>310</v>
+      </c>
+      <c r="E138" t="s">
+        <v>117</v>
+      </c>
+      <c r="F138" t="s">
+        <v>118</v>
+      </c>
+      <c r="G138" t="s">
+        <v>238</v>
+      </c>
+      <c r="I138" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>400</v>
+      </c>
+      <c r="B139" t="s">
+        <v>345</v>
+      </c>
+      <c r="C139" t="s">
+        <v>116</v>
+      </c>
+      <c r="D139" t="s">
+        <v>345</v>
+      </c>
+      <c r="E139" t="s">
+        <v>117</v>
+      </c>
+      <c r="F139" t="s">
+        <v>118</v>
+      </c>
+      <c r="G139" t="s">
+        <v>240</v>
+      </c>
+      <c r="I139" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>401</v>
+      </c>
+      <c r="B140" t="s">
+        <v>345</v>
+      </c>
+      <c r="C140" t="s">
+        <v>116</v>
+      </c>
+      <c r="D140" t="s">
+        <v>345</v>
+      </c>
+      <c r="E140" t="s">
+        <v>117</v>
+      </c>
+      <c r="F140" t="s">
+        <v>118</v>
+      </c>
+      <c r="G140" t="s">
+        <v>242</v>
+      </c>
+      <c r="I140" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>402</v>
+      </c>
+      <c r="B141" t="s">
+        <v>345</v>
+      </c>
+      <c r="C141" t="s">
+        <v>116</v>
+      </c>
+      <c r="D141" t="s">
+        <v>345</v>
+      </c>
+      <c r="E141" t="s">
+        <v>117</v>
+      </c>
+      <c r="F141" t="s">
+        <v>118</v>
+      </c>
+      <c r="G141" t="s">
+        <v>245</v>
+      </c>
+      <c r="I141" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>403</v>
+      </c>
+      <c r="B142" t="s">
+        <v>397</v>
+      </c>
+      <c r="C142" t="s">
+        <v>116</v>
+      </c>
+      <c r="D142" t="s">
+        <v>397</v>
+      </c>
+      <c r="E142" t="s">
+        <v>117</v>
+      </c>
+      <c r="F142" t="s">
+        <v>118</v>
+      </c>
+      <c r="G142" t="s">
+        <v>248</v>
+      </c>
+      <c r="I142" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>404</v>
+      </c>
+      <c r="B143" t="s">
+        <v>310</v>
+      </c>
+      <c r="C143" t="s">
+        <v>116</v>
+      </c>
+      <c r="D143" t="s">
+        <v>310</v>
+      </c>
+      <c r="E143" t="s">
+        <v>117</v>
+      </c>
+      <c r="F143" t="s">
+        <v>118</v>
+      </c>
+      <c r="G143" t="s">
+        <v>250</v>
+      </c>
+      <c r="I143" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>405</v>
+      </c>
+      <c r="B144" t="s">
+        <v>406</v>
+      </c>
+      <c r="C144" t="s">
+        <v>116</v>
+      </c>
+      <c r="D144" t="s">
+        <v>406</v>
+      </c>
+      <c r="E144" t="s">
+        <v>117</v>
+      </c>
+      <c r="F144" t="s">
+        <v>118</v>
+      </c>
+      <c r="G144" t="s">
+        <v>253</v>
+      </c>
+      <c r="I144" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>407</v>
+      </c>
+      <c r="B145" t="s">
+        <v>345</v>
+      </c>
+      <c r="C145" t="s">
+        <v>116</v>
+      </c>
+      <c r="D145" t="s">
+        <v>345</v>
+      </c>
+      <c r="E145" t="s">
+        <v>117</v>
+      </c>
+      <c r="F145" t="s">
+        <v>118</v>
+      </c>
+      <c r="G145" t="s">
+        <v>255</v>
+      </c>
+      <c r="I145" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>408</v>
+      </c>
+      <c r="B146" t="s">
+        <v>409</v>
+      </c>
+      <c r="C146" t="s">
+        <v>116</v>
+      </c>
+      <c r="D146" t="s">
+        <v>409</v>
+      </c>
+      <c r="E146" t="s">
+        <v>117</v>
+      </c>
+      <c r="F146" t="s">
+        <v>118</v>
+      </c>
+      <c r="G146" t="s">
+        <v>258</v>
+      </c>
+      <c r="I146" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>410</v>
+      </c>
+      <c r="B147" t="s">
+        <v>411</v>
+      </c>
+      <c r="C147" t="s">
+        <v>116</v>
+      </c>
+      <c r="D147" t="s">
+        <v>411</v>
+      </c>
+      <c r="E147" t="s">
+        <v>117</v>
+      </c>
+      <c r="F147" t="s">
+        <v>118</v>
+      </c>
+      <c r="G147" t="s">
+        <v>261</v>
+      </c>
+      <c r="I147" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>412</v>
+      </c>
+      <c r="B148" t="s">
+        <v>413</v>
+      </c>
+      <c r="C148" t="s">
+        <v>116</v>
+      </c>
+      <c r="D148" t="s">
+        <v>413</v>
+      </c>
+      <c r="E148" t="s">
+        <v>117</v>
+      </c>
+      <c r="F148" t="s">
+        <v>118</v>
+      </c>
+      <c r="G148" t="s">
+        <v>264</v>
+      </c>
+      <c r="I148" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>414</v>
+      </c>
+      <c r="B149" t="s">
+        <v>415</v>
+      </c>
+      <c r="C149" t="s">
+        <v>116</v>
+      </c>
+      <c r="D149" t="s">
+        <v>415</v>
+      </c>
+      <c r="E149" t="s">
+        <v>117</v>
+      </c>
+      <c r="F149" t="s">
+        <v>118</v>
+      </c>
+      <c r="G149" t="s">
+        <v>267</v>
+      </c>
+      <c r="I149" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>416</v>
+      </c>
+      <c r="B150" t="s">
+        <v>417</v>
+      </c>
+      <c r="C150" t="s">
+        <v>116</v>
+      </c>
+      <c r="D150" t="s">
+        <v>417</v>
+      </c>
+      <c r="E150" t="s">
+        <v>117</v>
+      </c>
+      <c r="F150" t="s">
+        <v>118</v>
+      </c>
+      <c r="G150" t="s">
+        <v>270</v>
+      </c>
+      <c r="I150" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>418</v>
+      </c>
+      <c r="B151" t="s">
+        <v>134</v>
+      </c>
+      <c r="C151" t="s">
+        <v>116</v>
+      </c>
+      <c r="D151" t="s">
+        <v>134</v>
+      </c>
+      <c r="E151" t="s">
+        <v>117</v>
+      </c>
+      <c r="F151" t="s">
+        <v>118</v>
+      </c>
+      <c r="G151" t="s">
+        <v>273</v>
+      </c>
+      <c r="I151" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>419</v>
+      </c>
+      <c r="B152" t="s">
+        <v>420</v>
+      </c>
+      <c r="C152" t="s">
+        <v>116</v>
+      </c>
+      <c r="D152" t="s">
+        <v>420</v>
+      </c>
+      <c r="E152" t="s">
+        <v>117</v>
+      </c>
+      <c r="F152" t="s">
+        <v>118</v>
+      </c>
+      <c r="G152" t="s">
+        <v>276</v>
+      </c>
+      <c r="I152" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>421</v>
+      </c>
+      <c r="B153" t="s">
+        <v>422</v>
+      </c>
+      <c r="C153" t="s">
+        <v>116</v>
+      </c>
+      <c r="D153" t="s">
+        <v>422</v>
+      </c>
+      <c r="E153" t="s">
+        <v>117</v>
+      </c>
+      <c r="F153" t="s">
+        <v>118</v>
+      </c>
+      <c r="G153" t="s">
+        <v>279</v>
+      </c>
+      <c r="I153" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>423</v>
+      </c>
+      <c r="B154" t="s">
+        <v>424</v>
+      </c>
+      <c r="C154" t="s">
+        <v>116</v>
+      </c>
+      <c r="D154" t="s">
+        <v>424</v>
+      </c>
+      <c r="E154" t="s">
+        <v>117</v>
+      </c>
+      <c r="F154" t="s">
+        <v>118</v>
+      </c>
+      <c r="G154" t="s">
+        <v>282</v>
+      </c>
+      <c r="I154" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>425</v>
+      </c>
+      <c r="B155" t="s">
+        <v>426</v>
+      </c>
+      <c r="C155" t="s">
+        <v>116</v>
+      </c>
+      <c r="D155" t="s">
+        <v>426</v>
+      </c>
+      <c r="E155" t="s">
+        <v>117</v>
+      </c>
+      <c r="F155" t="s">
+        <v>118</v>
+      </c>
+      <c r="G155" t="s">
+        <v>285</v>
+      </c>
+      <c r="I155" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>427</v>
+      </c>
+      <c r="B156" t="s">
+        <v>428</v>
+      </c>
+      <c r="C156" t="s">
+        <v>116</v>
+      </c>
+      <c r="D156" t="s">
+        <v>428</v>
+      </c>
+      <c r="E156" t="s">
+        <v>117</v>
+      </c>
+      <c r="F156" t="s">
+        <v>118</v>
+      </c>
+      <c r="G156" t="s">
+        <v>288</v>
+      </c>
+      <c r="I156" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>429</v>
+      </c>
+      <c r="B157" t="s">
+        <v>430</v>
+      </c>
+      <c r="C157" t="s">
+        <v>116</v>
+      </c>
+      <c r="D157" t="s">
+        <v>430</v>
+      </c>
+      <c r="E157" t="s">
+        <v>117</v>
+      </c>
+      <c r="F157" t="s">
+        <v>118</v>
+      </c>
+      <c r="G157" t="s">
+        <v>291</v>
+      </c>
+      <c r="I157" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>431</v>
+      </c>
+      <c r="B158" t="s">
+        <v>432</v>
+      </c>
+      <c r="C158" t="s">
+        <v>116</v>
+      </c>
+      <c r="D158" t="s">
+        <v>432</v>
+      </c>
+      <c r="E158" t="s">
+        <v>117</v>
+      </c>
+      <c r="F158" t="s">
+        <v>118</v>
+      </c>
+      <c r="G158" t="s">
+        <v>293</v>
+      </c>
+      <c r="I158" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>433</v>
+      </c>
+      <c r="B159" t="s">
+        <v>434</v>
+      </c>
+      <c r="C159" t="s">
+        <v>116</v>
+      </c>
+      <c r="D159" t="s">
+        <v>434</v>
+      </c>
+      <c r="E159" t="s">
+        <v>117</v>
+      </c>
+      <c r="F159" t="s">
+        <v>118</v>
+      </c>
+      <c r="G159" t="s">
+        <v>296</v>
+      </c>
+      <c r="I159" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>435</v>
+      </c>
+      <c r="B160" t="s">
+        <v>354</v>
+      </c>
+      <c r="C160" t="s">
+        <v>116</v>
+      </c>
+      <c r="D160" t="s">
+        <v>354</v>
+      </c>
+      <c r="E160" t="s">
+        <v>117</v>
+      </c>
+      <c r="F160" t="s">
+        <v>118</v>
+      </c>
+      <c r="G160" t="s">
+        <v>299</v>
+      </c>
+      <c r="I160" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>436</v>
+      </c>
+      <c r="B161" t="s">
+        <v>437</v>
+      </c>
+      <c r="C161" t="s">
+        <v>116</v>
+      </c>
+      <c r="D161" t="s">
+        <v>437</v>
+      </c>
+      <c r="E161" t="s">
+        <v>117</v>
+      </c>
+      <c r="F161" t="s">
+        <v>118</v>
+      </c>
+      <c r="G161" t="s">
+        <v>302</v>
+      </c>
+      <c r="I161" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>438</v>
+      </c>
+      <c r="B162" t="s">
+        <v>439</v>
+      </c>
+      <c r="C162" t="s">
+        <v>116</v>
+      </c>
+      <c r="D162" t="s">
+        <v>439</v>
+      </c>
+      <c r="E162" t="s">
+        <v>117</v>
+      </c>
+      <c r="F162" t="s">
+        <v>118</v>
+      </c>
+      <c r="G162" t="s">
+        <v>305</v>
+      </c>
+      <c r="I162" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>440</v>
+      </c>
+      <c r="B163" t="s">
+        <v>310</v>
+      </c>
+      <c r="C163" t="s">
+        <v>116</v>
+      </c>
+      <c r="D163" t="s">
+        <v>310</v>
+      </c>
+      <c r="E163" t="s">
+        <v>117</v>
+      </c>
+      <c r="F163" t="s">
+        <v>118</v>
+      </c>
+      <c r="G163" t="s">
+        <v>308</v>
+      </c>
+      <c r="I163" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>441</v>
+      </c>
+      <c r="B164" t="s">
+        <v>442</v>
+      </c>
+      <c r="C164" t="s">
+        <v>116</v>
+      </c>
+      <c r="D164" t="s">
+        <v>442</v>
+      </c>
+      <c r="E164" t="s">
+        <v>117</v>
+      </c>
+      <c r="F164" t="s">
+        <v>118</v>
+      </c>
+      <c r="G164" t="s">
+        <v>311</v>
+      </c>
+      <c r="I164" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>443</v>
+      </c>
+      <c r="B165" t="s">
+        <v>437</v>
+      </c>
+      <c r="C165" t="s">
+        <v>116</v>
+      </c>
+      <c r="D165" t="s">
+        <v>437</v>
+      </c>
+      <c r="E165" t="s">
+        <v>117</v>
+      </c>
+      <c r="F165" t="s">
+        <v>118</v>
+      </c>
+      <c r="G165" t="s">
+        <v>313</v>
+      </c>
+      <c r="I165" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>444</v>
+      </c>
+      <c r="B166" t="s">
+        <v>445</v>
+      </c>
+      <c r="C166" t="s">
+        <v>116</v>
+      </c>
+      <c r="D166" t="s">
+        <v>445</v>
+      </c>
+      <c r="E166" t="s">
+        <v>117</v>
+      </c>
+      <c r="F166" t="s">
+        <v>118</v>
+      </c>
+      <c r="G166" t="s">
+        <v>316</v>
+      </c>
+      <c r="I166" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>446</v>
+      </c>
+      <c r="B167" t="s">
+        <v>345</v>
+      </c>
+      <c r="C167" t="s">
+        <v>116</v>
+      </c>
+      <c r="D167" t="s">
+        <v>345</v>
+      </c>
+      <c r="E167" t="s">
+        <v>117</v>
+      </c>
+      <c r="F167" t="s">
+        <v>118</v>
+      </c>
+      <c r="G167" t="s">
+        <v>319</v>
+      </c>
+      <c r="I167" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>447</v>
+      </c>
+      <c r="B168" t="s">
+        <v>244</v>
+      </c>
+      <c r="C168" t="s">
+        <v>116</v>
+      </c>
+      <c r="D168" t="s">
+        <v>244</v>
+      </c>
+      <c r="E168" t="s">
+        <v>117</v>
+      </c>
+      <c r="F168" t="s">
+        <v>118</v>
+      </c>
+      <c r="G168" t="s">
+        <v>321</v>
+      </c>
+      <c r="I168" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>448</v>
+      </c>
+      <c r="B169" t="s">
+        <v>213</v>
+      </c>
+      <c r="C169" t="s">
+        <v>116</v>
+      </c>
+      <c r="D169" t="s">
+        <v>213</v>
+      </c>
+      <c r="E169" t="s">
+        <v>117</v>
+      </c>
+      <c r="F169" t="s">
+        <v>118</v>
+      </c>
+      <c r="G169" t="s">
+        <v>323</v>
+      </c>
+      <c r="I169" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>449</v>
+      </c>
+      <c r="B170" t="s">
+        <v>450</v>
+      </c>
+      <c r="C170" t="s">
+        <v>116</v>
+      </c>
+      <c r="D170" t="s">
+        <v>450</v>
+      </c>
+      <c r="E170" t="s">
+        <v>117</v>
+      </c>
+      <c r="F170" t="s">
+        <v>118</v>
+      </c>
+      <c r="G170" t="s">
+        <v>326</v>
+      </c>
+      <c r="I170" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>451</v>
+      </c>
+      <c r="B171" t="s">
+        <v>432</v>
+      </c>
+      <c r="C171" t="s">
+        <v>116</v>
+      </c>
+      <c r="D171" t="s">
+        <v>432</v>
+      </c>
+      <c r="E171" t="s">
+        <v>117</v>
+      </c>
+      <c r="F171" t="s">
+        <v>118</v>
+      </c>
+      <c r="G171" t="s">
+        <v>328</v>
+      </c>
+      <c r="I171" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>452</v>
+      </c>
+      <c r="B172" t="s">
+        <v>453</v>
+      </c>
+      <c r="C172" t="s">
+        <v>116</v>
+      </c>
+      <c r="D172" t="s">
+        <v>453</v>
+      </c>
+      <c r="E172" t="s">
+        <v>117</v>
+      </c>
+      <c r="F172" t="s">
+        <v>118</v>
+      </c>
+      <c r="G172" t="s">
+        <v>331</v>
+      </c>
+      <c r="I172" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>454</v>
+      </c>
+      <c r="B173" t="s">
+        <v>455</v>
+      </c>
+      <c r="C173" t="s">
+        <v>116</v>
+      </c>
+      <c r="D173" t="s">
+        <v>455</v>
+      </c>
+      <c r="E173" t="s">
+        <v>117</v>
+      </c>
+      <c r="F173" t="s">
+        <v>118</v>
+      </c>
+      <c r="G173" t="s">
+        <v>334</v>
+      </c>
+      <c r="I173" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>456</v>
+      </c>
+      <c r="B174" t="s">
+        <v>442</v>
+      </c>
+      <c r="C174" t="s">
+        <v>116</v>
+      </c>
+      <c r="D174" t="s">
+        <v>442</v>
+      </c>
+      <c r="E174" t="s">
+        <v>117</v>
+      </c>
+      <c r="F174" t="s">
+        <v>118</v>
+      </c>
+      <c r="G174" t="s">
+        <v>336</v>
+      </c>
+      <c r="I174" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>457</v>
+      </c>
+      <c r="B175" t="s">
+        <v>345</v>
+      </c>
+      <c r="C175" t="s">
+        <v>116</v>
+      </c>
+      <c r="D175" t="s">
+        <v>345</v>
+      </c>
+      <c r="E175" t="s">
+        <v>117</v>
+      </c>
+      <c r="F175" t="s">
+        <v>118</v>
+      </c>
+      <c r="G175" t="s">
+        <v>339</v>
+      </c>
+      <c r="I175" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
